--- a/excel/finished/焦化/CK67-化产-硫铵报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-硫铵报表（日）.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>6-7#  焦炉硫铵操作记录</t>
   </si>
@@ -519,10 +519,10 @@
     <t>MSSA/H2O</t>
   </si>
   <si>
-    <t>63202/全氨/三回收饱和器前</t>
-  </si>
-  <si>
-    <t>63202/全氨/三回收饱和器后</t>
+    <t>63202/全氨/6#-7#焦炉饱和器前</t>
+  </si>
+  <si>
+    <t>63202/全氨/6#-7#焦炉饱和器后</t>
   </si>
   <si>
     <t>MYLS/I/1/2/3</t>
@@ -534,8 +534,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -640,132 +640,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -782,11 +656,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -823,13 +823,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,31 +877,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,91 +913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,19 +943,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,11 +1475,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,6 +1525,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,8 +1556,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,55 +1572,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1590,136 +1590,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -4950,7 +4950,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/excel/finished/焦化/CK67-化产-硫铵报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-硫铵报表（日）.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20730" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="4.硫铵（日）" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="_liuan_day_hour" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
+    <sheet name="_liuan_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
-  <si>
-    <t xml:space="preserve">6-7#  焦炉硫铵操作记录</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+  <si>
+    <t>6-7#  焦炉硫铵操作记录</t>
   </si>
   <si>
     <t xml:space="preserve">    SGSSG-BSMCSA35-G010-01A</t>
   </si>
   <si>
-    <t xml:space="preserve">项目   
+    <t>项目   
   时间</t>
   </si>
   <si>
@@ -37,55 +38,56 @@
     <t>大母液循环泵</t>
   </si>
   <si>
-    <t xml:space="preserve">母液贮槽液位 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">母液放空槽液位 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硫酸槽液位 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">饱和器加酸流量 m3/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引风机吸力 kPa</t>
+    <t>母液贮槽液位 mm</t>
+  </si>
+  <si>
+    <t>母液放空槽液位 mm</t>
+  </si>
+  <si>
+    <t>硫酸槽液位 mm</t>
+  </si>
+  <si>
+    <t>饱和器加酸流量 m3/h</t>
+  </si>
+  <si>
+    <t>引风机吸力 kPa</t>
   </si>
   <si>
     <t>化验分析</t>
   </si>
   <si>
-    <t xml:space="preserve">预热器阻力 kPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">饱和器阻力 kPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预热后温度 ℃</t>
+    <t>预热器阻力 kPa</t>
+  </si>
+  <si>
+    <t>饱和器阻力 kPa</t>
+  </si>
+  <si>
+    <t>预热后温度 ℃</t>
   </si>
   <si>
     <r>
       <rPr>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">饱和器后温度 </t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
         <rFont val="宋体"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>℃</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">温度 ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电机电流 A</t>
+    <t>温度 ℃</t>
+  </si>
+  <si>
+    <t>电机电流 A</t>
   </si>
   <si>
     <t>1#</t>
@@ -199,7 +201,7 @@
     <t>≤-5</t>
   </si>
   <si>
-    <t xml:space="preserve">硫
+    <t>硫
 铵
 产
 品</t>
@@ -207,18 +209,19 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <sz val="12"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">产量
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> t</t>
     </r>
@@ -226,18 +229,19 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <sz val="12"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">含氮量
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <sz val="12"/>
       </rPr>
       <t>%</t>
     </r>
@@ -245,18 +249,19 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <sz val="12"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">游离酸
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <sz val="12"/>
       </rPr>
       <t>%</t>
     </r>
@@ -264,17 +269,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <sz val="12"/>
+        <charset val="134"/>
       </rPr>
       <t>水分</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <sz val="12"/>
       </rPr>
       <t>%</t>
     </r>
@@ -283,13 +289,13 @@
     <t xml:space="preserve">饱和器煤气含氨量 </t>
   </si>
   <si>
-    <t xml:space="preserve">前 mg/Nm3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">后 mg/Nm3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">接酸量 t</t>
+    <t>前 mg/Nm3</t>
+  </si>
+  <si>
+    <t>后 mg/Nm3</t>
+  </si>
+  <si>
+    <t>接酸量 t</t>
   </si>
   <si>
     <t>夜班平均</t>
@@ -307,25 +313,26 @@
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -334,33 +341,35 @@
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>白</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -369,33 +378,35 @@
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>中</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -404,34 +415,36 @@
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>接班：</t>
     </r>
@@ -440,34 +453,36 @@
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>接班：</t>
     </r>
@@ -476,34 +491,36 @@
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">                    </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>接班：</t>
     </r>
@@ -512,456 +529,306 @@
     <t>MSSA/O/1/2/3</t>
   </si>
   <si>
-    <t>MSSA/N2</t>
-  </si>
-  <si>
-    <t>MSSA/游离酸</t>
-  </si>
-  <si>
-    <t>MSSA/H2O</t>
-  </si>
-  <si>
-    <t>63202/全氨/6#-7#焦炉饱和器前</t>
-  </si>
-  <si>
-    <t>63202/全氨/6#-7#焦炉饱和器后</t>
-  </si>
-  <si>
     <t>MYLS/I/1/2/3</t>
+  </si>
+  <si>
+    <t>MSSA/N2/QMIR21LSA</t>
+  </si>
+  <si>
+    <r>
+      <t>MSSA/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>游离酸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/QMIR21LSA</t>
+    </r>
+  </si>
+  <si>
+    <t>MSSA/H2O/QMIR21LSA</t>
+  </si>
+  <si>
+    <r>
+      <t>63202/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全氨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/6#-7#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>焦炉饱和器前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/QMIR21MQJH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>63202/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全氨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/6#-7#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>焦炉饱和器后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/QMIR21MQJH</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="4"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="20"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="2"/>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <i/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <sz val="12"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color indexed="64"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b/>
-      <color rgb="FFFA7D00"/>
+      <sz val="14"/>
+      <color indexed="64"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color indexed="65"/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="22"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color theme="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="16"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="16"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color indexed="2"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color indexed="64"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <b/>
-      <sz val="14"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431398"/>
-        <bgColor theme="6" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810496"/>
-        <bgColor theme="6" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241899"/>
-        <bgColor theme="6" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241899"/>
-        <bgColor theme="5" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241899"/>
-        <bgColor theme="4" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241899"/>
-        <bgColor theme="7" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431398"/>
-        <bgColor theme="9" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431398"/>
-        <bgColor theme="8" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431398"/>
-        <bgColor theme="4" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810496"/>
-        <bgColor theme="4" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431398"/>
-        <bgColor theme="5" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810496"/>
-        <bgColor theme="5" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431398"/>
-        <bgColor theme="7" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810496"/>
-        <bgColor theme="7" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810496"/>
-        <bgColor theme="8" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241899"/>
-        <bgColor theme="8" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810496"/>
-        <bgColor theme="9" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241899"/>
-        <bgColor theme="9" tint="0.39997558519241899"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -971,115 +838,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999999999999999"/>
-        <bgColor theme="0" tint="-0.14999999999999999"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="38">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1530,485 +1299,283 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="96">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
-  </cellStyleXfs>
-  <cellXfs count="94">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="17" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="21" fillId="0" borderId="9" numFmtId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="33" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="24" fillId="33" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="25" fillId="33" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="26" fillId="33" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="24" fillId="33" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="24" fillId="33" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="33" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="27" fillId="34" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="24" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="24" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="33" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="25" fillId="33" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="24" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="16" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="27" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="28" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="28" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="30" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="29" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="30" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="30" fillId="0" borderId="27" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="29" fillId="0" borderId="28" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="29" fillId="0" borderId="29" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="29" fillId="0" borderId="27" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="29" fillId="0" borderId="28" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="29" fillId="0" borderId="28" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="29" fillId="0" borderId="30" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="31" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="32" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="21" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="33" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="33" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="31" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="31" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="31" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="34" fillId="0" borderId="31" numFmtId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="17" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="17" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="35" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="32" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="35" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="33" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="34" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="35" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="36" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="37" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="34" fillId="0" borderId="31" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="34" fillId="0" borderId="38" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="39" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="31" fillId="0" borderId="39" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="40" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="41" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="40" numFmtId="163" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="41" numFmtId="163" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="42" numFmtId="163" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="42" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="43" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="9" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="44" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="40" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="41" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="36" fillId="0" borderId="42" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="44" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color indexed="2"/>
@@ -2074,13 +1641,38 @@
         <color indexed="2"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2094,9 +1686,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 2" hidden="0"/>
+        <xdr:cNvPr id="4" name="Line 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2133,9 +1725,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 3" hidden="0"/>
+        <xdr:cNvPr id="5" name="Line 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2162,291 +1754,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2649,2898 +1958,2915 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
-      <selection activeCell="A3" activeCellId="0" sqref="A3:A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="10.8166666666667"/>
-    <col customWidth="1" min="3" max="18" width="10.5416666666667"/>
-    <col customWidth="1" min="20" max="20" width="14.366666666666699"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="18" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="27.75" r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:23" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
     </row>
-    <row customFormat="1" ht="19.5" r="2" s="2">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="str">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="46" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="R2" s="6" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="R2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
     </row>
-    <row ht="32" customHeight="1" r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:23" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63"/>
     </row>
-    <row ht="36" customHeight="1" r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
+    <row r="4" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="56"/>
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="66"/>
     </row>
-    <row ht="18.75" r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
+    <row r="5" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
+      <c r="I5" s="57"/>
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30" t="s">
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32" t="s">
+      <c r="T5" s="70"/>
+      <c r="U5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row ht="31.5" customHeight="1" hidden="1" r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="35" t="s">
+      <c r="Q6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="37"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="40"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
     </row>
-    <row customFormat="1" ht="31.5" customHeight="1" hidden="1" r="7" s="41">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="1:23" s="14" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="17">
         <v>4</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="17">
         <v>4</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="17">
         <v>65</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="17">
         <v>65</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="17">
         <v>60</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="17">
         <v>55</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="17">
         <v>55</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="17">
         <v>200</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="17">
         <v>200</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="17">
         <v>1800</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="17">
         <v>1200</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="17">
         <v>5000</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="17">
         <v>1</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="18">
         <v>-5</v>
       </c>
-      <c r="S7" s="46"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22"/>
     </row>
-    <row customFormat="1" ht="31.5" customHeight="1" hidden="1" r="8" s="41">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43" t="s">
+    <row r="8" spans="1:23" s="14" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="17">
         <v>-99999</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="17">
         <v>-99999</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="17">
         <v>-99999</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="17">
         <v>-99999</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="17">
         <v>-99999</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="17">
         <v>-99999</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="17">
         <v>40</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="17">
         <v>-99999</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="17">
         <v>-99999</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="17">
         <v>-99999</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="17">
         <v>-99999</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="17">
         <v>-99999</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="17">
         <v>-99999</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="17">
         <v>-99999</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="17">
         <v>-99999</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="17">
         <v>-99999</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="22"/>
     </row>
-    <row customFormat="1" ht="25" customHeight="1" r="9" s="50">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52" t="s">
+    <row r="9" spans="1:23" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="53" t="s">
+      <c r="L9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="O9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="54" t="s">
+      <c r="R9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="55"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="31"/>
     </row>
-    <row ht="25" customHeight="1" r="10">
-      <c r="B10" s="59">
+    <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="32">
         <v>0</v>
       </c>
-      <c r="C10" s="60" t="str">
+      <c r="C10" s="33" t="str">
         <f>IF(_liuan_day_hour!A2="","",_liuan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D10" s="60" t="str">
+      <c r="D10" s="33" t="str">
         <f>IF(_liuan_day_hour!B2="","",_liuan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E10" s="60" t="str">
+      <c r="E10" s="33" t="str">
         <f>IF(_liuan_day_hour!C2="","",_liuan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F10" s="60" t="str">
+      <c r="F10" s="33" t="str">
         <f>IF(_liuan_day_hour!D2="","",_liuan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G10" s="61" t="str">
+      <c r="G10" s="34" t="str">
         <f>IF(_liuan_day_hour!E2="","",_liuan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H10" s="61" t="str">
+      <c r="H10" s="34" t="str">
         <f>IF(_liuan_day_hour!F2="","",_liuan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I10" s="60" t="str">
+      <c r="I10" s="33" t="str">
         <f>IF(_liuan_day_hour!G2="","",_liuan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J10" s="60" t="str">
+      <c r="J10" s="33" t="str">
         <f>IF(_liuan_day_hour!H2="","",_liuan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K10" s="60" t="str">
+      <c r="K10" s="33" t="str">
         <f>IF(_liuan_day_hour!I2="","",_liuan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L10" s="61" t="str">
+      <c r="L10" s="34" t="str">
         <f>IF(_liuan_day_hour!J2="","",_liuan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M10" s="61" t="str">
+      <c r="M10" s="34" t="str">
         <f>IF(_liuan_day_hour!K2="","",_liuan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N10" s="61" t="str">
+      <c r="N10" s="34" t="str">
         <f>IF(_liuan_day_hour!L2="","",_liuan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O10" s="61" t="str">
+      <c r="O10" s="34" t="str">
         <f>IF(_liuan_day_hour!M2="","",_liuan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P10" s="61" t="str">
+      <c r="P10" s="34" t="str">
         <f>IF(_liuan_day_hour!N2="","",_liuan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q10" s="60" t="str">
+      <c r="Q10" s="33" t="str">
         <f>IF(_liuan_day_hour!O2="","",_liuan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R10" s="61" t="str">
+      <c r="R10" s="34" t="str">
         <f>IF(_liuan_day_hour!P2="","",_liuan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S10" s="62" t="s">
+      <c r="S10" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="63" t="s">
+      <c r="T10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="60" t="str">
+      <c r="U10" s="33" t="str">
         <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="V10" s="60" t="str">
+      <c r="V10" s="33" t="str">
         <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="W10" s="64" t="str">
+      <c r="W10" s="36" t="str">
         <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
     </row>
-    <row ht="25" customHeight="1" r="11">
-      <c r="B11" s="59">
-        <v>0.041666666666666699</v>
-      </c>
-      <c r="C11" s="60" t="str">
+    <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C11" s="33" t="str">
         <f>IF(_liuan_day_hour!A3="","",_liuan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D11" s="60" t="str">
+      <c r="D11" s="33" t="str">
         <f>IF(_liuan_day_hour!B3="","",_liuan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E11" s="60" t="str">
+      <c r="E11" s="33" t="str">
         <f>IF(_liuan_day_hour!C3="","",_liuan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F11" s="60" t="str">
+      <c r="F11" s="33" t="str">
         <f>IF(_liuan_day_hour!D3="","",_liuan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G11" s="61" t="str">
+      <c r="G11" s="34" t="str">
         <f>IF(_liuan_day_hour!E3="","",_liuan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H11" s="61" t="str">
+      <c r="H11" s="34" t="str">
         <f>IF(_liuan_day_hour!F3="","",_liuan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I11" s="60" t="str">
+      <c r="I11" s="33" t="str">
         <f>IF(_liuan_day_hour!G3="","",_liuan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J11" s="60" t="str">
+      <c r="J11" s="33" t="str">
         <f>IF(_liuan_day_hour!H3="","",_liuan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K11" s="60" t="str">
+      <c r="K11" s="33" t="str">
         <f>IF(_liuan_day_hour!I3="","",_liuan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L11" s="61" t="str">
+      <c r="L11" s="34" t="str">
         <f>IF(_liuan_day_hour!J3="","",_liuan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M11" s="61" t="str">
+      <c r="M11" s="34" t="str">
         <f>IF(_liuan_day_hour!K3="","",_liuan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N11" s="61" t="str">
+      <c r="N11" s="34" t="str">
         <f>IF(_liuan_day_hour!L3="","",_liuan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O11" s="61" t="str">
+      <c r="O11" s="34" t="str">
         <f>IF(_liuan_day_hour!M3="","",_liuan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P11" s="61" t="str">
+      <c r="P11" s="34" t="str">
         <f>IF(_liuan_day_hour!N3="","",_liuan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q11" s="60" t="str">
+      <c r="Q11" s="33" t="str">
         <f>IF(_liuan_day_hour!O3="","",_liuan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R11" s="61" t="str">
+      <c r="R11" s="34" t="str">
         <f>IF(_liuan_day_hour!P3="","",_liuan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S11" s="62"/>
-      <c r="T11" s="63" t="s">
+      <c r="S11" s="73"/>
+      <c r="T11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="U11" s="60" t="str">
+      <c r="U11" s="33" t="str">
         <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="V11" s="60" t="str">
+      <c r="V11" s="33" t="str">
         <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="W11" s="64" t="str">
+      <c r="W11" s="36" t="str">
         <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
         <v/>
       </c>
     </row>
-    <row ht="25" customHeight="1" r="12">
-      <c r="B12" s="59">
-        <v>0.083333333333333301</v>
-      </c>
-      <c r="C12" s="60" t="str">
+    <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C12" s="33" t="str">
         <f>IF(_liuan_day_hour!A4="","",_liuan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D12" s="60" t="str">
+      <c r="D12" s="33" t="str">
         <f>IF(_liuan_day_hour!B4="","",_liuan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E12" s="60" t="str">
+      <c r="E12" s="33" t="str">
         <f>IF(_liuan_day_hour!C4="","",_liuan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F12" s="60" t="str">
+      <c r="F12" s="33" t="str">
         <f>IF(_liuan_day_hour!D4="","",_liuan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G12" s="61" t="str">
+      <c r="G12" s="34" t="str">
         <f>IF(_liuan_day_hour!E4="","",_liuan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H12" s="61" t="str">
+      <c r="H12" s="34" t="str">
         <f>IF(_liuan_day_hour!F4="","",_liuan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I12" s="60" t="str">
+      <c r="I12" s="33" t="str">
         <f>IF(_liuan_day_hour!G4="","",_liuan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J12" s="60" t="str">
+      <c r="J12" s="33" t="str">
         <f>IF(_liuan_day_hour!H4="","",_liuan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K12" s="60" t="str">
+      <c r="K12" s="33" t="str">
         <f>IF(_liuan_day_hour!I4="","",_liuan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L12" s="61" t="str">
+      <c r="L12" s="34" t="str">
         <f>IF(_liuan_day_hour!J4="","",_liuan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M12" s="61" t="str">
+      <c r="M12" s="34" t="str">
         <f>IF(_liuan_day_hour!K4="","",_liuan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N12" s="61" t="str">
+      <c r="N12" s="34" t="str">
         <f>IF(_liuan_day_hour!L4="","",_liuan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O12" s="61" t="str">
+      <c r="O12" s="34" t="str">
         <f>IF(_liuan_day_hour!M4="","",_liuan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P12" s="61" t="str">
+      <c r="P12" s="34" t="str">
         <f>IF(_liuan_day_hour!N4="","",_liuan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q12" s="60" t="str">
+      <c r="Q12" s="33" t="str">
         <f>IF(_liuan_day_hour!O4="","",_liuan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R12" s="61" t="str">
+      <c r="R12" s="34" t="str">
         <f>IF(_liuan_day_hour!P4="","",_liuan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S12" s="62"/>
-      <c r="T12" s="63" t="s">
+      <c r="S12" s="73"/>
+      <c r="T12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="60" t="str">
+      <c r="U12" s="33" t="str">
         <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="V12" s="60" t="str">
+      <c r="V12" s="33" t="str">
         <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="W12" s="64" t="str">
+      <c r="W12" s="36" t="str">
         <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
         <v/>
       </c>
     </row>
-    <row ht="25" customHeight="1" r="13">
-      <c r="B13" s="59">
+    <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="32">
         <v>0.125</v>
       </c>
-      <c r="C13" s="60" t="str">
+      <c r="C13" s="33" t="str">
         <f>IF(_liuan_day_hour!A5="","",_liuan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D13" s="60" t="str">
+      <c r="D13" s="33" t="str">
         <f>IF(_liuan_day_hour!B5="","",_liuan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E13" s="60" t="str">
+      <c r="E13" s="33" t="str">
         <f>IF(_liuan_day_hour!C5="","",_liuan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F13" s="60" t="str">
+      <c r="F13" s="33" t="str">
         <f>IF(_liuan_day_hour!D5="","",_liuan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G13" s="61" t="str">
+      <c r="G13" s="34" t="str">
         <f>IF(_liuan_day_hour!E5="","",_liuan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H13" s="61" t="str">
+      <c r="H13" s="34" t="str">
         <f>IF(_liuan_day_hour!F5="","",_liuan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I13" s="60" t="str">
+      <c r="I13" s="33" t="str">
         <f>IF(_liuan_day_hour!G5="","",_liuan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J13" s="60" t="str">
+      <c r="J13" s="33" t="str">
         <f>IF(_liuan_day_hour!H5="","",_liuan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K13" s="60" t="str">
+      <c r="K13" s="33" t="str">
         <f>IF(_liuan_day_hour!I5="","",_liuan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L13" s="61" t="str">
+      <c r="L13" s="34" t="str">
         <f>IF(_liuan_day_hour!J5="","",_liuan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M13" s="61" t="str">
+      <c r="M13" s="34" t="str">
         <f>IF(_liuan_day_hour!K5="","",_liuan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N13" s="61" t="str">
+      <c r="N13" s="34" t="str">
         <f>IF(_liuan_day_hour!L5="","",_liuan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O13" s="61" t="str">
+      <c r="O13" s="34" t="str">
         <f>IF(_liuan_day_hour!M5="","",_liuan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P13" s="61" t="str">
+      <c r="P13" s="34" t="str">
         <f>IF(_liuan_day_hour!N5="","",_liuan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q13" s="60" t="str">
+      <c r="Q13" s="33" t="str">
         <f>IF(_liuan_day_hour!O5="","",_liuan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R13" s="61" t="str">
+      <c r="R13" s="34" t="str">
         <f>IF(_liuan_day_hour!P5="","",_liuan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S13" s="62"/>
-      <c r="T13" s="65" t="s">
+      <c r="S13" s="73"/>
+      <c r="T13" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="60" t="str">
+      <c r="U13" s="33" t="str">
         <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="V13" s="60" t="str">
+      <c r="V13" s="33" t="str">
         <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="W13" s="64" t="str">
+      <c r="W13" s="36" t="str">
         <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
         <v/>
       </c>
     </row>
-    <row ht="25" customHeight="1" r="14">
-      <c r="B14" s="59">
+    <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="32">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C14" s="60" t="str">
+      <c r="C14" s="33" t="str">
         <f>IF(_liuan_day_hour!A6="","",_liuan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D14" s="60" t="str">
+      <c r="D14" s="33" t="str">
         <f>IF(_liuan_day_hour!B6="","",_liuan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E14" s="60" t="str">
+      <c r="E14" s="33" t="str">
         <f>IF(_liuan_day_hour!C6="","",_liuan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F14" s="60" t="str">
+      <c r="F14" s="33" t="str">
         <f>IF(_liuan_day_hour!D6="","",_liuan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G14" s="61" t="str">
+      <c r="G14" s="34" t="str">
         <f>IF(_liuan_day_hour!E6="","",_liuan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H14" s="61" t="str">
+      <c r="H14" s="34" t="str">
         <f>IF(_liuan_day_hour!F6="","",_liuan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I14" s="60" t="str">
+      <c r="I14" s="33" t="str">
         <f>IF(_liuan_day_hour!G6="","",_liuan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J14" s="60" t="str">
+      <c r="J14" s="33" t="str">
         <f>IF(_liuan_day_hour!H6="","",_liuan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K14" s="60" t="str">
+      <c r="K14" s="33" t="str">
         <f>IF(_liuan_day_hour!I6="","",_liuan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L14" s="61" t="str">
+      <c r="L14" s="34" t="str">
         <f>IF(_liuan_day_hour!J6="","",_liuan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M14" s="61" t="str">
+      <c r="M14" s="34" t="str">
         <f>IF(_liuan_day_hour!K6="","",_liuan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N14" s="61" t="str">
+      <c r="N14" s="34" t="str">
         <f>IF(_liuan_day_hour!L6="","",_liuan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O14" s="61" t="str">
+      <c r="O14" s="34" t="str">
         <f>IF(_liuan_day_hour!M6="","",_liuan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P14" s="61" t="str">
+      <c r="P14" s="34" t="str">
         <f>IF(_liuan_day_hour!N6="","",_liuan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q14" s="60" t="str">
+      <c r="Q14" s="33" t="str">
         <f>IF(_liuan_day_hour!O6="","",_liuan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R14" s="61" t="str">
+      <c r="R14" s="34" t="str">
         <f>IF(_liuan_day_hour!P6="","",_liuan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S14" s="62" t="s">
+      <c r="S14" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="T14" s="66" t="s">
+      <c r="T14" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="U14" s="60" t="str">
+      <c r="U14" s="33" t="str">
         <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="V14" s="60" t="str">
+      <c r="V14" s="33" t="str">
         <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="W14" s="64" t="str">
+      <c r="W14" s="36" t="str">
         <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
         <v/>
       </c>
     </row>
-    <row ht="25" customHeight="1" r="15">
-      <c r="B15" s="59">
+    <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="32">
         <v>0.20833333333333301</v>
       </c>
-      <c r="C15" s="60" t="str">
+      <c r="C15" s="33" t="str">
         <f>IF(_liuan_day_hour!A7="","",_liuan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D15" s="60" t="str">
+      <c r="D15" s="33" t="str">
         <f>IF(_liuan_day_hour!B7="","",_liuan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E15" s="60" t="str">
+      <c r="E15" s="33" t="str">
         <f>IF(_liuan_day_hour!C7="","",_liuan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F15" s="60" t="str">
+      <c r="F15" s="33" t="str">
         <f>IF(_liuan_day_hour!D7="","",_liuan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G15" s="61" t="str">
+      <c r="G15" s="34" t="str">
         <f>IF(_liuan_day_hour!E7="","",_liuan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H15" s="61" t="str">
+      <c r="H15" s="34" t="str">
         <f>IF(_liuan_day_hour!F7="","",_liuan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I15" s="60" t="str">
+      <c r="I15" s="33" t="str">
         <f>IF(_liuan_day_hour!G7="","",_liuan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J15" s="60" t="str">
+      <c r="J15" s="33" t="str">
         <f>IF(_liuan_day_hour!H7="","",_liuan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K15" s="60" t="str">
+      <c r="K15" s="33" t="str">
         <f>IF(_liuan_day_hour!I7="","",_liuan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L15" s="61" t="str">
+      <c r="L15" s="34" t="str">
         <f>IF(_liuan_day_hour!J7="","",_liuan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M15" s="61" t="str">
+      <c r="M15" s="34" t="str">
         <f>IF(_liuan_day_hour!K7="","",_liuan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N15" s="61" t="str">
+      <c r="N15" s="34" t="str">
         <f>IF(_liuan_day_hour!L7="","",_liuan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O15" s="61" t="str">
+      <c r="O15" s="34" t="str">
         <f>IF(_liuan_day_hour!M7="","",_liuan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P15" s="61" t="str">
+      <c r="P15" s="34" t="str">
         <f>IF(_liuan_day_hour!N7="","",_liuan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q15" s="60" t="str">
+      <c r="Q15" s="33" t="str">
         <f>IF(_liuan_day_hour!O7="","",_liuan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R15" s="61" t="str">
+      <c r="R15" s="34" t="str">
         <f>IF(_liuan_day_hour!P7="","",_liuan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S15" s="62"/>
-      <c r="T15" s="63" t="s">
+      <c r="S15" s="73"/>
+      <c r="T15" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="U15" s="60" t="str">
+      <c r="U15" s="33" t="str">
         <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="V15" s="60" t="str">
+      <c r="V15" s="33" t="str">
         <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="W15" s="64" t="str">
+      <c r="W15" s="36" t="str">
         <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
         <v/>
       </c>
     </row>
-    <row ht="25" customHeight="1" r="16">
-      <c r="B16" s="59">
+    <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="32">
         <v>0.25</v>
       </c>
-      <c r="C16" s="60" t="str">
+      <c r="C16" s="33" t="str">
         <f>IF(_liuan_day_hour!A8="","",_liuan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D16" s="60" t="str">
+      <c r="D16" s="33" t="str">
         <f>IF(_liuan_day_hour!B8="","",_liuan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E16" s="60" t="str">
+      <c r="E16" s="33" t="str">
         <f>IF(_liuan_day_hour!C8="","",_liuan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F16" s="60" t="str">
+      <c r="F16" s="33" t="str">
         <f>IF(_liuan_day_hour!D8="","",_liuan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G16" s="61" t="str">
+      <c r="G16" s="34" t="str">
         <f>IF(_liuan_day_hour!E8="","",_liuan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H16" s="61" t="str">
+      <c r="H16" s="34" t="str">
         <f>IF(_liuan_day_hour!F8="","",_liuan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I16" s="60" t="str">
+      <c r="I16" s="33" t="str">
         <f>IF(_liuan_day_hour!G8="","",_liuan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J16" s="60" t="str">
+      <c r="J16" s="33" t="str">
         <f>IF(_liuan_day_hour!H8="","",_liuan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K16" s="60" t="str">
+      <c r="K16" s="33" t="str">
         <f>IF(_liuan_day_hour!I8="","",_liuan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L16" s="61" t="str">
+      <c r="L16" s="34" t="str">
         <f>IF(_liuan_day_hour!J8="","",_liuan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M16" s="61" t="str">
+      <c r="M16" s="34" t="str">
         <f>IF(_liuan_day_hour!K8="","",_liuan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N16" s="61" t="str">
+      <c r="N16" s="34" t="str">
         <f>IF(_liuan_day_hour!L8="","",_liuan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O16" s="61" t="str">
+      <c r="O16" s="34" t="str">
         <f>IF(_liuan_day_hour!M8="","",_liuan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P16" s="61" t="str">
+      <c r="P16" s="34" t="str">
         <f>IF(_liuan_day_hour!N8="","",_liuan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q16" s="60" t="str">
+      <c r="Q16" s="33" t="str">
         <f>IF(_liuan_day_hour!O8="","",_liuan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R16" s="61" t="str">
+      <c r="R16" s="34" t="str">
         <f>IF(_liuan_day_hour!P8="","",_liuan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S16" s="67" t="s">
+      <c r="S16" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="T16" s="66"/>
-      <c r="U16" s="60" t="str">
+      <c r="T16" s="75"/>
+      <c r="U16" s="33" t="str">
         <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="V16" s="60" t="str">
+      <c r="V16" s="33" t="str">
         <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="W16" s="64" t="str">
+      <c r="W16" s="36" t="str">
         <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
         <v/>
       </c>
     </row>
-    <row ht="25" customHeight="1" r="17">
-      <c r="B17" s="59">
+    <row r="17" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="32">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C17" s="60" t="str">
+      <c r="C17" s="33" t="str">
         <f>IF(_liuan_day_hour!A9="","",_liuan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D17" s="60" t="str">
+      <c r="D17" s="33" t="str">
         <f>IF(_liuan_day_hour!B9="","",_liuan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E17" s="60" t="str">
+      <c r="E17" s="33" t="str">
         <f>IF(_liuan_day_hour!C9="","",_liuan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F17" s="60" t="str">
+      <c r="F17" s="33" t="str">
         <f>IF(_liuan_day_hour!D9="","",_liuan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G17" s="61" t="str">
+      <c r="G17" s="34" t="str">
         <f>IF(_liuan_day_hour!E9="","",_liuan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H17" s="61" t="str">
+      <c r="H17" s="34" t="str">
         <f>IF(_liuan_day_hour!F9="","",_liuan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I17" s="60" t="str">
+      <c r="I17" s="33" t="str">
         <f>IF(_liuan_day_hour!G9="","",_liuan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J17" s="60" t="str">
+      <c r="J17" s="33" t="str">
         <f>IF(_liuan_day_hour!H9="","",_liuan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K17" s="60" t="str">
+      <c r="K17" s="33" t="str">
         <f>IF(_liuan_day_hour!I9="","",_liuan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L17" s="61" t="str">
+      <c r="L17" s="34" t="str">
         <f>IF(_liuan_day_hour!J9="","",_liuan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M17" s="61" t="str">
+      <c r="M17" s="34" t="str">
         <f>IF(_liuan_day_hour!K9="","",_liuan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N17" s="61" t="str">
+      <c r="N17" s="34" t="str">
         <f>IF(_liuan_day_hour!L9="","",_liuan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O17" s="61" t="str">
+      <c r="O17" s="34" t="str">
         <f>IF(_liuan_day_hour!M9="","",_liuan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P17" s="61" t="str">
+      <c r="P17" s="34" t="str">
         <f>IF(_liuan_day_hour!N9="","",_liuan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q17" s="60" t="str">
+      <c r="Q17" s="33" t="str">
         <f>IF(_liuan_day_hour!O9="","",_liuan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R17" s="61" t="str">
+      <c r="R17" s="34" t="str">
         <f>IF(_liuan_day_hour!P9="","",_liuan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S17" s="68"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="70"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="78"/>
     </row>
-    <row ht="25" customHeight="1" r="18">
-      <c r="B18" s="59">
+    <row r="18" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="32">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C18" s="60" t="str">
+      <c r="C18" s="33" t="str">
         <f>IF(_liuan_day_hour!A10="","",_liuan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D18" s="60" t="str">
+      <c r="D18" s="33" t="str">
         <f>IF(_liuan_day_hour!B10="","",_liuan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E18" s="60" t="str">
+      <c r="E18" s="33" t="str">
         <f>IF(_liuan_day_hour!C10="","",_liuan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F18" s="60" t="str">
+      <c r="F18" s="33" t="str">
         <f>IF(_liuan_day_hour!D10="","",_liuan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G18" s="61" t="str">
+      <c r="G18" s="34" t="str">
         <f>IF(_liuan_day_hour!E10="","",_liuan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H18" s="61" t="str">
+      <c r="H18" s="34" t="str">
         <f>IF(_liuan_day_hour!F10="","",_liuan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I18" s="60" t="str">
+      <c r="I18" s="33" t="str">
         <f>IF(_liuan_day_hour!G10="","",_liuan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J18" s="60" t="str">
+      <c r="J18" s="33" t="str">
         <f>IF(_liuan_day_hour!H10="","",_liuan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K18" s="60" t="str">
+      <c r="K18" s="33" t="str">
         <f>IF(_liuan_day_hour!I10="","",_liuan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L18" s="61" t="str">
+      <c r="L18" s="34" t="str">
         <f>IF(_liuan_day_hour!J10="","",_liuan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M18" s="61" t="str">
+      <c r="M18" s="34" t="str">
         <f>IF(_liuan_day_hour!K10="","",_liuan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N18" s="61" t="str">
+      <c r="N18" s="34" t="str">
         <f>IF(_liuan_day_hour!L10="","",_liuan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O18" s="61" t="str">
+      <c r="O18" s="34" t="str">
         <f>IF(_liuan_day_hour!M10="","",_liuan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P18" s="61" t="str">
+      <c r="P18" s="34" t="str">
         <f>IF(_liuan_day_hour!N10="","",_liuan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q18" s="60" t="str">
+      <c r="Q18" s="33" t="str">
         <f>IF(_liuan_day_hour!O10="","",_liuan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R18" s="61" t="str">
+      <c r="R18" s="34" t="str">
         <f>IF(_liuan_day_hour!P10="","",_liuan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S18" s="71"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="73"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="19">
-      <c r="B19" s="59">
+    <row r="19" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="32">
         <v>0.375</v>
       </c>
-      <c r="C19" s="60" t="str">
+      <c r="C19" s="33" t="str">
         <f>IF(_liuan_day_hour!A11="","",_liuan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D19" s="60" t="str">
+      <c r="D19" s="33" t="str">
         <f>IF(_liuan_day_hour!B11="","",_liuan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E19" s="60" t="str">
+      <c r="E19" s="33" t="str">
         <f>IF(_liuan_day_hour!C11="","",_liuan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F19" s="60" t="str">
+      <c r="F19" s="33" t="str">
         <f>IF(_liuan_day_hour!D11="","",_liuan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G19" s="61" t="str">
+      <c r="G19" s="34" t="str">
         <f>IF(_liuan_day_hour!E11="","",_liuan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H19" s="61" t="str">
+      <c r="H19" s="34" t="str">
         <f>IF(_liuan_day_hour!F11="","",_liuan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I19" s="60" t="str">
+      <c r="I19" s="33" t="str">
         <f>IF(_liuan_day_hour!G11="","",_liuan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J19" s="60" t="str">
+      <c r="J19" s="33" t="str">
         <f>IF(_liuan_day_hour!H11="","",_liuan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K19" s="60" t="str">
+      <c r="K19" s="33" t="str">
         <f>IF(_liuan_day_hour!I11="","",_liuan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L19" s="61" t="str">
+      <c r="L19" s="34" t="str">
         <f>IF(_liuan_day_hour!J11="","",_liuan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M19" s="61" t="str">
+      <c r="M19" s="34" t="str">
         <f>IF(_liuan_day_hour!K11="","",_liuan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N19" s="61" t="str">
+      <c r="N19" s="34" t="str">
         <f>IF(_liuan_day_hour!L11="","",_liuan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O19" s="61" t="str">
+      <c r="O19" s="34" t="str">
         <f>IF(_liuan_day_hour!M11="","",_liuan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P19" s="61" t="str">
+      <c r="P19" s="34" t="str">
         <f>IF(_liuan_day_hour!N11="","",_liuan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q19" s="60" t="str">
+      <c r="Q19" s="33" t="str">
         <f>IF(_liuan_day_hour!O11="","",_liuan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R19" s="61" t="str">
+      <c r="R19" s="34" t="str">
         <f>IF(_liuan_day_hour!P11="","",_liuan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S19" s="71"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="73"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="20">
-      <c r="B20" s="59">
+    <row r="20" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="32">
         <v>0.41666666666666602</v>
       </c>
-      <c r="C20" s="60" t="str">
+      <c r="C20" s="33" t="str">
         <f>IF(_liuan_day_hour!A12="","",_liuan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D20" s="60" t="str">
+      <c r="D20" s="33" t="str">
         <f>IF(_liuan_day_hour!B12="","",_liuan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E20" s="60" t="str">
+      <c r="E20" s="33" t="str">
         <f>IF(_liuan_day_hour!C12="","",_liuan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F20" s="60" t="str">
+      <c r="F20" s="33" t="str">
         <f>IF(_liuan_day_hour!D12="","",_liuan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G20" s="61" t="str">
+      <c r="G20" s="34" t="str">
         <f>IF(_liuan_day_hour!E12="","",_liuan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H20" s="61" t="str">
+      <c r="H20" s="34" t="str">
         <f>IF(_liuan_day_hour!F12="","",_liuan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I20" s="60" t="str">
+      <c r="I20" s="33" t="str">
         <f>IF(_liuan_day_hour!G12="","",_liuan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J20" s="60" t="str">
+      <c r="J20" s="33" t="str">
         <f>IF(_liuan_day_hour!H12="","",_liuan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K20" s="60" t="str">
+      <c r="K20" s="33" t="str">
         <f>IF(_liuan_day_hour!I12="","",_liuan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L20" s="61" t="str">
+      <c r="L20" s="34" t="str">
         <f>IF(_liuan_day_hour!J12="","",_liuan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M20" s="61" t="str">
+      <c r="M20" s="34" t="str">
         <f>IF(_liuan_day_hour!K12="","",_liuan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N20" s="61" t="str">
+      <c r="N20" s="34" t="str">
         <f>IF(_liuan_day_hour!L12="","",_liuan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O20" s="61" t="str">
+      <c r="O20" s="34" t="str">
         <f>IF(_liuan_day_hour!M12="","",_liuan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P20" s="61" t="str">
+      <c r="P20" s="34" t="str">
         <f>IF(_liuan_day_hour!N12="","",_liuan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q20" s="60" t="str">
+      <c r="Q20" s="33" t="str">
         <f>IF(_liuan_day_hour!O12="","",_liuan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R20" s="61" t="str">
+      <c r="R20" s="34" t="str">
         <f>IF(_liuan_day_hour!P12="","",_liuan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S20" s="71"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="73"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="21">
-      <c r="B21" s="59">
+    <row r="21" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="32">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C21" s="60" t="str">
+      <c r="C21" s="33" t="str">
         <f>IF(_liuan_day_hour!A13="","",_liuan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D21" s="60" t="str">
+      <c r="D21" s="33" t="str">
         <f>IF(_liuan_day_hour!B13="","",_liuan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E21" s="60" t="str">
+      <c r="E21" s="33" t="str">
         <f>IF(_liuan_day_hour!C13="","",_liuan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F21" s="60" t="str">
+      <c r="F21" s="33" t="str">
         <f>IF(_liuan_day_hour!D13="","",_liuan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G21" s="61" t="str">
+      <c r="G21" s="34" t="str">
         <f>IF(_liuan_day_hour!E13="","",_liuan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H21" s="61" t="str">
+      <c r="H21" s="34" t="str">
         <f>IF(_liuan_day_hour!F13="","",_liuan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I21" s="60" t="str">
+      <c r="I21" s="33" t="str">
         <f>IF(_liuan_day_hour!G13="","",_liuan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J21" s="60" t="str">
+      <c r="J21" s="33" t="str">
         <f>IF(_liuan_day_hour!H13="","",_liuan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K21" s="60" t="str">
+      <c r="K21" s="33" t="str">
         <f>IF(_liuan_day_hour!I13="","",_liuan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L21" s="61" t="str">
+      <c r="L21" s="34" t="str">
         <f>IF(_liuan_day_hour!J13="","",_liuan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M21" s="61" t="str">
+      <c r="M21" s="34" t="str">
         <f>IF(_liuan_day_hour!K13="","",_liuan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N21" s="61" t="str">
+      <c r="N21" s="34" t="str">
         <f>IF(_liuan_day_hour!L13="","",_liuan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O21" s="61" t="str">
+      <c r="O21" s="34" t="str">
         <f>IF(_liuan_day_hour!M13="","",_liuan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P21" s="61" t="str">
+      <c r="P21" s="34" t="str">
         <f>IF(_liuan_day_hour!N13="","",_liuan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q21" s="60" t="str">
+      <c r="Q21" s="33" t="str">
         <f>IF(_liuan_day_hour!O13="","",_liuan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R21" s="61" t="str">
+      <c r="R21" s="34" t="str">
         <f>IF(_liuan_day_hour!P13="","",_liuan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S21" s="71"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="73"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="22">
-      <c r="B22" s="59">
+    <row r="22" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="32">
         <v>0.5</v>
       </c>
-      <c r="C22" s="60" t="str">
+      <c r="C22" s="33" t="str">
         <f>IF(_liuan_day_hour!A14="","",_liuan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D22" s="60" t="str">
+      <c r="D22" s="33" t="str">
         <f>IF(_liuan_day_hour!B14="","",_liuan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E22" s="60" t="str">
+      <c r="E22" s="33" t="str">
         <f>IF(_liuan_day_hour!C14="","",_liuan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F22" s="60" t="str">
+      <c r="F22" s="33" t="str">
         <f>IF(_liuan_day_hour!D14="","",_liuan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G22" s="61" t="str">
+      <c r="G22" s="34" t="str">
         <f>IF(_liuan_day_hour!E14="","",_liuan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H22" s="61" t="str">
+      <c r="H22" s="34" t="str">
         <f>IF(_liuan_day_hour!F14="","",_liuan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I22" s="60" t="str">
+      <c r="I22" s="33" t="str">
         <f>IF(_liuan_day_hour!G14="","",_liuan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J22" s="60" t="str">
+      <c r="J22" s="33" t="str">
         <f>IF(_liuan_day_hour!H14="","",_liuan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K22" s="60" t="str">
+      <c r="K22" s="33" t="str">
         <f>IF(_liuan_day_hour!I14="","",_liuan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L22" s="61" t="str">
+      <c r="L22" s="34" t="str">
         <f>IF(_liuan_day_hour!J14="","",_liuan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M22" s="61" t="str">
+      <c r="M22" s="34" t="str">
         <f>IF(_liuan_day_hour!K14="","",_liuan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N22" s="61" t="str">
+      <c r="N22" s="34" t="str">
         <f>IF(_liuan_day_hour!L14="","",_liuan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O22" s="61" t="str">
+      <c r="O22" s="34" t="str">
         <f>IF(_liuan_day_hour!M14="","",_liuan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P22" s="61" t="str">
+      <c r="P22" s="34" t="str">
         <f>IF(_liuan_day_hour!N14="","",_liuan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q22" s="60" t="str">
+      <c r="Q22" s="33" t="str">
         <f>IF(_liuan_day_hour!O14="","",_liuan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R22" s="61" t="str">
+      <c r="R22" s="34" t="str">
         <f>IF(_liuan_day_hour!P14="","",_liuan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S22" s="71"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="73"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="23">
-      <c r="B23" s="59">
+    <row r="23" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="32">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C23" s="60" t="str">
+      <c r="C23" s="33" t="str">
         <f>IF(_liuan_day_hour!A15="","",_liuan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D23" s="60" t="str">
+      <c r="D23" s="33" t="str">
         <f>IF(_liuan_day_hour!B15="","",_liuan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E23" s="60" t="str">
+      <c r="E23" s="33" t="str">
         <f>IF(_liuan_day_hour!C15="","",_liuan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F23" s="60" t="str">
+      <c r="F23" s="33" t="str">
         <f>IF(_liuan_day_hour!D15="","",_liuan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G23" s="61" t="str">
+      <c r="G23" s="34" t="str">
         <f>IF(_liuan_day_hour!E15="","",_liuan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H23" s="61" t="str">
+      <c r="H23" s="34" t="str">
         <f>IF(_liuan_day_hour!F15="","",_liuan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I23" s="60" t="str">
+      <c r="I23" s="33" t="str">
         <f>IF(_liuan_day_hour!G15="","",_liuan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J23" s="60" t="str">
+      <c r="J23" s="33" t="str">
         <f>IF(_liuan_day_hour!H15="","",_liuan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K23" s="60" t="str">
+      <c r="K23" s="33" t="str">
         <f>IF(_liuan_day_hour!I15="","",_liuan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L23" s="61" t="str">
+      <c r="L23" s="34" t="str">
         <f>IF(_liuan_day_hour!J15="","",_liuan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M23" s="61" t="str">
+      <c r="M23" s="34" t="str">
         <f>IF(_liuan_day_hour!K15="","",_liuan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N23" s="61" t="str">
+      <c r="N23" s="34" t="str">
         <f>IF(_liuan_day_hour!L15="","",_liuan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O23" s="61" t="str">
+      <c r="O23" s="34" t="str">
         <f>IF(_liuan_day_hour!M15="","",_liuan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P23" s="61" t="str">
+      <c r="P23" s="34" t="str">
         <f>IF(_liuan_day_hour!N15="","",_liuan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q23" s="60" t="str">
+      <c r="Q23" s="33" t="str">
         <f>IF(_liuan_day_hour!O15="","",_liuan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R23" s="61" t="str">
+      <c r="R23" s="34" t="str">
         <f>IF(_liuan_day_hour!P15="","",_liuan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S23" s="71"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="73"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="24">
-      <c r="B24" s="59">
+    <row r="24" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="32">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C24" s="60" t="str">
+      <c r="C24" s="33" t="str">
         <f>IF(_liuan_day_hour!A16="","",_liuan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D24" s="60" t="str">
+      <c r="D24" s="33" t="str">
         <f>IF(_liuan_day_hour!B16="","",_liuan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E24" s="60" t="str">
+      <c r="E24" s="33" t="str">
         <f>IF(_liuan_day_hour!C16="","",_liuan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F24" s="60" t="str">
+      <c r="F24" s="33" t="str">
         <f>IF(_liuan_day_hour!D16="","",_liuan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G24" s="61" t="str">
+      <c r="G24" s="34" t="str">
         <f>IF(_liuan_day_hour!E16="","",_liuan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H24" s="61" t="str">
+      <c r="H24" s="34" t="str">
         <f>IF(_liuan_day_hour!F16="","",_liuan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I24" s="60" t="str">
+      <c r="I24" s="33" t="str">
         <f>IF(_liuan_day_hour!G16="","",_liuan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J24" s="60" t="str">
+      <c r="J24" s="33" t="str">
         <f>IF(_liuan_day_hour!H16="","",_liuan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K24" s="60" t="str">
+      <c r="K24" s="33" t="str">
         <f>IF(_liuan_day_hour!I16="","",_liuan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L24" s="61" t="str">
+      <c r="L24" s="34" t="str">
         <f>IF(_liuan_day_hour!J16="","",_liuan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M24" s="61" t="str">
+      <c r="M24" s="34" t="str">
         <f>IF(_liuan_day_hour!K16="","",_liuan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N24" s="61" t="str">
+      <c r="N24" s="34" t="str">
         <f>IF(_liuan_day_hour!L16="","",_liuan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O24" s="61" t="str">
+      <c r="O24" s="34" t="str">
         <f>IF(_liuan_day_hour!M16="","",_liuan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P24" s="61" t="str">
+      <c r="P24" s="34" t="str">
         <f>IF(_liuan_day_hour!N16="","",_liuan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q24" s="60" t="str">
+      <c r="Q24" s="33" t="str">
         <f>IF(_liuan_day_hour!O16="","",_liuan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R24" s="61" t="str">
+      <c r="R24" s="34" t="str">
         <f>IF(_liuan_day_hour!P16="","",_liuan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S24" s="71"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="73"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="25">
-      <c r="B25" s="59">
+    <row r="25" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="32">
         <v>0.625</v>
       </c>
-      <c r="C25" s="60" t="str">
+      <c r="C25" s="33" t="str">
         <f>IF(_liuan_day_hour!A17="","",_liuan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D25" s="60" t="str">
+      <c r="D25" s="33" t="str">
         <f>IF(_liuan_day_hour!B17="","",_liuan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E25" s="60" t="str">
+      <c r="E25" s="33" t="str">
         <f>IF(_liuan_day_hour!C17="","",_liuan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F25" s="60" t="str">
+      <c r="F25" s="33" t="str">
         <f>IF(_liuan_day_hour!D17="","",_liuan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G25" s="61" t="str">
+      <c r="G25" s="34" t="str">
         <f>IF(_liuan_day_hour!E17="","",_liuan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H25" s="61" t="str">
+      <c r="H25" s="34" t="str">
         <f>IF(_liuan_day_hour!F17="","",_liuan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I25" s="60" t="str">
+      <c r="I25" s="33" t="str">
         <f>IF(_liuan_day_hour!G17="","",_liuan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J25" s="60" t="str">
+      <c r="J25" s="33" t="str">
         <f>IF(_liuan_day_hour!H17="","",_liuan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K25" s="60" t="str">
+      <c r="K25" s="33" t="str">
         <f>IF(_liuan_day_hour!I17="","",_liuan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L25" s="61" t="str">
+      <c r="L25" s="34" t="str">
         <f>IF(_liuan_day_hour!J17="","",_liuan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M25" s="61" t="str">
+      <c r="M25" s="34" t="str">
         <f>IF(_liuan_day_hour!K17="","",_liuan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N25" s="61" t="str">
+      <c r="N25" s="34" t="str">
         <f>IF(_liuan_day_hour!L17="","",_liuan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O25" s="61" t="str">
+      <c r="O25" s="34" t="str">
         <f>IF(_liuan_day_hour!M17="","",_liuan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P25" s="61" t="str">
+      <c r="P25" s="34" t="str">
         <f>IF(_liuan_day_hour!N17="","",_liuan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q25" s="60" t="str">
+      <c r="Q25" s="33" t="str">
         <f>IF(_liuan_day_hour!O17="","",_liuan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R25" s="61" t="str">
+      <c r="R25" s="34" t="str">
         <f>IF(_liuan_day_hour!P17="","",_liuan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S25" s="71"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="73"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="26">
-      <c r="B26" s="59">
+    <row r="26" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="32">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C26" s="60" t="str">
+      <c r="C26" s="33" t="str">
         <f>IF(_liuan_day_hour!A18="","",_liuan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D26" s="60" t="str">
+      <c r="D26" s="33" t="str">
         <f>IF(_liuan_day_hour!B18="","",_liuan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E26" s="60" t="str">
+      <c r="E26" s="33" t="str">
         <f>IF(_liuan_day_hour!C18="","",_liuan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F26" s="60" t="str">
+      <c r="F26" s="33" t="str">
         <f>IF(_liuan_day_hour!D18="","",_liuan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G26" s="61" t="str">
+      <c r="G26" s="34" t="str">
         <f>IF(_liuan_day_hour!E18="","",_liuan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H26" s="61" t="str">
+      <c r="H26" s="34" t="str">
         <f>IF(_liuan_day_hour!F18="","",_liuan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I26" s="60" t="str">
+      <c r="I26" s="33" t="str">
         <f>IF(_liuan_day_hour!G18="","",_liuan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J26" s="60" t="str">
+      <c r="J26" s="33" t="str">
         <f>IF(_liuan_day_hour!H18="","",_liuan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K26" s="60" t="str">
+      <c r="K26" s="33" t="str">
         <f>IF(_liuan_day_hour!I18="","",_liuan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L26" s="61" t="str">
+      <c r="L26" s="34" t="str">
         <f>IF(_liuan_day_hour!J18="","",_liuan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M26" s="61" t="str">
+      <c r="M26" s="34" t="str">
         <f>IF(_liuan_day_hour!K18="","",_liuan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N26" s="61" t="str">
+      <c r="N26" s="34" t="str">
         <f>IF(_liuan_day_hour!L18="","",_liuan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O26" s="61" t="str">
+      <c r="O26" s="34" t="str">
         <f>IF(_liuan_day_hour!M18="","",_liuan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P26" s="61" t="str">
+      <c r="P26" s="34" t="str">
         <f>IF(_liuan_day_hour!N18="","",_liuan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q26" s="60" t="str">
+      <c r="Q26" s="33" t="str">
         <f>IF(_liuan_day_hour!O18="","",_liuan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R26" s="61" t="str">
+      <c r="R26" s="34" t="str">
         <f>IF(_liuan_day_hour!P18="","",_liuan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S26" s="71"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="73"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="27">
-      <c r="B27" s="59">
+    <row r="27" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="32">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C27" s="60" t="str">
+      <c r="C27" s="33" t="str">
         <f>IF(_liuan_day_hour!A19="","",_liuan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D27" s="60" t="str">
+      <c r="D27" s="33" t="str">
         <f>IF(_liuan_day_hour!B19="","",_liuan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E27" s="60" t="str">
+      <c r="E27" s="33" t="str">
         <f>IF(_liuan_day_hour!C19="","",_liuan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F27" s="60" t="str">
+      <c r="F27" s="33" t="str">
         <f>IF(_liuan_day_hour!D19="","",_liuan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G27" s="61" t="str">
+      <c r="G27" s="34" t="str">
         <f>IF(_liuan_day_hour!E19="","",_liuan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H27" s="61" t="str">
+      <c r="H27" s="34" t="str">
         <f>IF(_liuan_day_hour!F19="","",_liuan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I27" s="60" t="str">
+      <c r="I27" s="33" t="str">
         <f>IF(_liuan_day_hour!G19="","",_liuan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J27" s="60" t="str">
+      <c r="J27" s="33" t="str">
         <f>IF(_liuan_day_hour!H19="","",_liuan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K27" s="60" t="str">
+      <c r="K27" s="33" t="str">
         <f>IF(_liuan_day_hour!I19="","",_liuan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L27" s="61" t="str">
+      <c r="L27" s="34" t="str">
         <f>IF(_liuan_day_hour!J19="","",_liuan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M27" s="61" t="str">
+      <c r="M27" s="34" t="str">
         <f>IF(_liuan_day_hour!K19="","",_liuan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N27" s="61" t="str">
+      <c r="N27" s="34" t="str">
         <f>IF(_liuan_day_hour!L19="","",_liuan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O27" s="61" t="str">
+      <c r="O27" s="34" t="str">
         <f>IF(_liuan_day_hour!M19="","",_liuan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P27" s="61" t="str">
+      <c r="P27" s="34" t="str">
         <f>IF(_liuan_day_hour!N19="","",_liuan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q27" s="60" t="str">
+      <c r="Q27" s="33" t="str">
         <f>IF(_liuan_day_hour!O19="","",_liuan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R27" s="61" t="str">
+      <c r="R27" s="34" t="str">
         <f>IF(_liuan_day_hour!P19="","",_liuan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S27" s="71"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="73"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="28">
-      <c r="B28" s="59">
+    <row r="28" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="32">
         <v>0.75</v>
       </c>
-      <c r="C28" s="60" t="str">
+      <c r="C28" s="33" t="str">
         <f>IF(_liuan_day_hour!A20="","",_liuan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D28" s="60" t="str">
+      <c r="D28" s="33" t="str">
         <f>IF(_liuan_day_hour!B20="","",_liuan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E28" s="60" t="str">
+      <c r="E28" s="33" t="str">
         <f>IF(_liuan_day_hour!C20="","",_liuan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F28" s="60" t="str">
+      <c r="F28" s="33" t="str">
         <f>IF(_liuan_day_hour!D20="","",_liuan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G28" s="61" t="str">
+      <c r="G28" s="34" t="str">
         <f>IF(_liuan_day_hour!E20="","",_liuan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H28" s="61" t="str">
+      <c r="H28" s="34" t="str">
         <f>IF(_liuan_day_hour!F20="","",_liuan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I28" s="60" t="str">
+      <c r="I28" s="33" t="str">
         <f>IF(_liuan_day_hour!G20="","",_liuan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J28" s="60" t="str">
+      <c r="J28" s="33" t="str">
         <f>IF(_liuan_day_hour!H20="","",_liuan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K28" s="60" t="str">
+      <c r="K28" s="33" t="str">
         <f>IF(_liuan_day_hour!I20="","",_liuan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L28" s="61" t="str">
+      <c r="L28" s="34" t="str">
         <f>IF(_liuan_day_hour!J20="","",_liuan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M28" s="61" t="str">
+      <c r="M28" s="34" t="str">
         <f>IF(_liuan_day_hour!K20="","",_liuan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N28" s="61" t="str">
+      <c r="N28" s="34" t="str">
         <f>IF(_liuan_day_hour!L20="","",_liuan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O28" s="61" t="str">
+      <c r="O28" s="34" t="str">
         <f>IF(_liuan_day_hour!M20="","",_liuan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P28" s="61" t="str">
+      <c r="P28" s="34" t="str">
         <f>IF(_liuan_day_hour!N20="","",_liuan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q28" s="60" t="str">
+      <c r="Q28" s="33" t="str">
         <f>IF(_liuan_day_hour!O20="","",_liuan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R28" s="61" t="str">
+      <c r="R28" s="34" t="str">
         <f>IF(_liuan_day_hour!P20="","",_liuan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S28" s="71"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="73"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="29">
-      <c r="B29" s="59">
+    <row r="29" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="32">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C29" s="60" t="str">
+      <c r="C29" s="33" t="str">
         <f>IF(_liuan_day_hour!A21="","",_liuan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D29" s="60" t="str">
+      <c r="D29" s="33" t="str">
         <f>IF(_liuan_day_hour!B21="","",_liuan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E29" s="60" t="str">
+      <c r="E29" s="33" t="str">
         <f>IF(_liuan_day_hour!C21="","",_liuan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F29" s="60" t="str">
+      <c r="F29" s="33" t="str">
         <f>IF(_liuan_day_hour!D21="","",_liuan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G29" s="61" t="str">
+      <c r="G29" s="34" t="str">
         <f>IF(_liuan_day_hour!E21="","",_liuan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H29" s="61" t="str">
+      <c r="H29" s="34" t="str">
         <f>IF(_liuan_day_hour!F21="","",_liuan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I29" s="60" t="str">
+      <c r="I29" s="33" t="str">
         <f>IF(_liuan_day_hour!G21="","",_liuan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J29" s="60" t="str">
+      <c r="J29" s="33" t="str">
         <f>IF(_liuan_day_hour!H21="","",_liuan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K29" s="60" t="str">
+      <c r="K29" s="33" t="str">
         <f>IF(_liuan_day_hour!I21="","",_liuan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L29" s="61" t="str">
+      <c r="L29" s="34" t="str">
         <f>IF(_liuan_day_hour!J21="","",_liuan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M29" s="61" t="str">
+      <c r="M29" s="34" t="str">
         <f>IF(_liuan_day_hour!K21="","",_liuan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N29" s="61" t="str">
+      <c r="N29" s="34" t="str">
         <f>IF(_liuan_day_hour!L21="","",_liuan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O29" s="61" t="str">
+      <c r="O29" s="34" t="str">
         <f>IF(_liuan_day_hour!M21="","",_liuan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P29" s="61" t="str">
+      <c r="P29" s="34" t="str">
         <f>IF(_liuan_day_hour!N21="","",_liuan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q29" s="60" t="str">
+      <c r="Q29" s="33" t="str">
         <f>IF(_liuan_day_hour!O21="","",_liuan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R29" s="61" t="str">
+      <c r="R29" s="34" t="str">
         <f>IF(_liuan_day_hour!P21="","",_liuan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S29" s="71"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="73"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="30">
-      <c r="B30" s="59">
+    <row r="30" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C30" s="60" t="str">
+      <c r="C30" s="33" t="str">
         <f>IF(_liuan_day_hour!A22="","",_liuan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D30" s="60" t="str">
+      <c r="D30" s="33" t="str">
         <f>IF(_liuan_day_hour!B22="","",_liuan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E30" s="60" t="str">
+      <c r="E30" s="33" t="str">
         <f>IF(_liuan_day_hour!C22="","",_liuan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F30" s="60" t="str">
+      <c r="F30" s="33" t="str">
         <f>IF(_liuan_day_hour!D22="","",_liuan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G30" s="61" t="str">
+      <c r="G30" s="34" t="str">
         <f>IF(_liuan_day_hour!E22="","",_liuan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H30" s="61" t="str">
+      <c r="H30" s="34" t="str">
         <f>IF(_liuan_day_hour!F22="","",_liuan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I30" s="60" t="str">
+      <c r="I30" s="33" t="str">
         <f>IF(_liuan_day_hour!G22="","",_liuan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J30" s="60" t="str">
+      <c r="J30" s="33" t="str">
         <f>IF(_liuan_day_hour!H22="","",_liuan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K30" s="60" t="str">
+      <c r="K30" s="33" t="str">
         <f>IF(_liuan_day_hour!I22="","",_liuan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L30" s="61" t="str">
+      <c r="L30" s="34" t="str">
         <f>IF(_liuan_day_hour!J22="","",_liuan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M30" s="61" t="str">
+      <c r="M30" s="34" t="str">
         <f>IF(_liuan_day_hour!K22="","",_liuan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N30" s="61" t="str">
+      <c r="N30" s="34" t="str">
         <f>IF(_liuan_day_hour!L22="","",_liuan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O30" s="61" t="str">
+      <c r="O30" s="34" t="str">
         <f>IF(_liuan_day_hour!M22="","",_liuan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P30" s="61" t="str">
+      <c r="P30" s="34" t="str">
         <f>IF(_liuan_day_hour!N22="","",_liuan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q30" s="60" t="str">
+      <c r="Q30" s="33" t="str">
         <f>IF(_liuan_day_hour!O22="","",_liuan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R30" s="61" t="str">
+      <c r="R30" s="34" t="str">
         <f>IF(_liuan_day_hour!P22="","",_liuan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S30" s="71"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="73"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="31">
-      <c r="B31" s="59">
+    <row r="31" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="32">
         <v>0.875</v>
       </c>
-      <c r="C31" s="60" t="str">
+      <c r="C31" s="33" t="str">
         <f>IF(_liuan_day_hour!A23="","",_liuan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D31" s="60" t="str">
+      <c r="D31" s="33" t="str">
         <f>IF(_liuan_day_hour!B23="","",_liuan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E31" s="60" t="str">
+      <c r="E31" s="33" t="str">
         <f>IF(_liuan_day_hour!C23="","",_liuan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F31" s="60" t="str">
+      <c r="F31" s="33" t="str">
         <f>IF(_liuan_day_hour!D23="","",_liuan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G31" s="61" t="str">
+      <c r="G31" s="34" t="str">
         <f>IF(_liuan_day_hour!E23="","",_liuan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H31" s="61" t="str">
+      <c r="H31" s="34" t="str">
         <f>IF(_liuan_day_hour!F23="","",_liuan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I31" s="60" t="str">
+      <c r="I31" s="33" t="str">
         <f>IF(_liuan_day_hour!G23="","",_liuan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J31" s="60" t="str">
+      <c r="J31" s="33" t="str">
         <f>IF(_liuan_day_hour!H23="","",_liuan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K31" s="60" t="str">
+      <c r="K31" s="33" t="str">
         <f>IF(_liuan_day_hour!I23="","",_liuan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L31" s="61" t="str">
+      <c r="L31" s="34" t="str">
         <f>IF(_liuan_day_hour!J23="","",_liuan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M31" s="61" t="str">
+      <c r="M31" s="34" t="str">
         <f>IF(_liuan_day_hour!K23="","",_liuan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N31" s="61" t="str">
+      <c r="N31" s="34" t="str">
         <f>IF(_liuan_day_hour!L23="","",_liuan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O31" s="61" t="str">
+      <c r="O31" s="34" t="str">
         <f>IF(_liuan_day_hour!M23="","",_liuan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P31" s="61" t="str">
+      <c r="P31" s="34" t="str">
         <f>IF(_liuan_day_hour!N23="","",_liuan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q31" s="60" t="str">
+      <c r="Q31" s="33" t="str">
         <f>IF(_liuan_day_hour!O23="","",_liuan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R31" s="61" t="str">
+      <c r="R31" s="34" t="str">
         <f>IF(_liuan_day_hour!P23="","",_liuan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S31" s="71"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="73"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="32">
-      <c r="B32" s="59">
+    <row r="32" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C32" s="60" t="str">
+      <c r="C32" s="33" t="str">
         <f>IF(_liuan_day_hour!A24="","",_liuan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D32" s="60" t="str">
+      <c r="D32" s="33" t="str">
         <f>IF(_liuan_day_hour!B24="","",_liuan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E32" s="60" t="str">
+      <c r="E32" s="33" t="str">
         <f>IF(_liuan_day_hour!C24="","",_liuan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F32" s="60" t="str">
+      <c r="F32" s="33" t="str">
         <f>IF(_liuan_day_hour!D24="","",_liuan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G32" s="61" t="str">
+      <c r="G32" s="34" t="str">
         <f>IF(_liuan_day_hour!E24="","",_liuan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H32" s="61" t="str">
+      <c r="H32" s="34" t="str">
         <f>IF(_liuan_day_hour!F24="","",_liuan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I32" s="60" t="str">
+      <c r="I32" s="33" t="str">
         <f>IF(_liuan_day_hour!G24="","",_liuan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J32" s="60" t="str">
+      <c r="J32" s="33" t="str">
         <f>IF(_liuan_day_hour!H24="","",_liuan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K32" s="60" t="str">
+      <c r="K32" s="33" t="str">
         <f>IF(_liuan_day_hour!I24="","",_liuan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L32" s="61" t="str">
+      <c r="L32" s="34" t="str">
         <f>IF(_liuan_day_hour!J24="","",_liuan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M32" s="61" t="str">
+      <c r="M32" s="34" t="str">
         <f>IF(_liuan_day_hour!K24="","",_liuan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N32" s="61" t="str">
+      <c r="N32" s="34" t="str">
         <f>IF(_liuan_day_hour!L24="","",_liuan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O32" s="61" t="str">
+      <c r="O32" s="34" t="str">
         <f>IF(_liuan_day_hour!M24="","",_liuan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P32" s="61" t="str">
+      <c r="P32" s="34" t="str">
         <f>IF(_liuan_day_hour!N24="","",_liuan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q32" s="60" t="str">
+      <c r="Q32" s="33" t="str">
         <f>IF(_liuan_day_hour!O24="","",_liuan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R32" s="61" t="str">
+      <c r="R32" s="34" t="str">
         <f>IF(_liuan_day_hour!P24="","",_liuan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S32" s="71"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="73"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="33">
-      <c r="B33" s="59">
+    <row r="33" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="32">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C33" s="60" t="str">
+      <c r="C33" s="33" t="str">
         <f>IF(_liuan_day_hour!A25="","",_liuan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D33" s="60" t="str">
+      <c r="D33" s="33" t="str">
         <f>IF(_liuan_day_hour!B25="","",_liuan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E33" s="60" t="str">
+      <c r="E33" s="33" t="str">
         <f>IF(_liuan_day_hour!C25="","",_liuan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F33" s="60" t="str">
+      <c r="F33" s="33" t="str">
         <f>IF(_liuan_day_hour!D25="","",_liuan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G33" s="61" t="str">
+      <c r="G33" s="34" t="str">
         <f>IF(_liuan_day_hour!E25="","",_liuan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H33" s="61" t="str">
+      <c r="H33" s="34" t="str">
         <f>IF(_liuan_day_hour!F25="","",_liuan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I33" s="60" t="str">
+      <c r="I33" s="33" t="str">
         <f>IF(_liuan_day_hour!G25="","",_liuan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J33" s="60" t="str">
+      <c r="J33" s="33" t="str">
         <f>IF(_liuan_day_hour!H25="","",_liuan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K33" s="60" t="str">
+      <c r="K33" s="33" t="str">
         <f>IF(_liuan_day_hour!I25="","",_liuan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L33" s="61" t="str">
+      <c r="L33" s="34" t="str">
         <f>IF(_liuan_day_hour!J25="","",_liuan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M33" s="61" t="str">
+      <c r="M33" s="34" t="str">
         <f>IF(_liuan_day_hour!K25="","",_liuan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N33" s="61" t="str">
+      <c r="N33" s="34" t="str">
         <f>IF(_liuan_day_hour!L25="","",_liuan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O33" s="61" t="str">
+      <c r="O33" s="34" t="str">
         <f>IF(_liuan_day_hour!M25="","",_liuan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P33" s="61" t="str">
+      <c r="P33" s="34" t="str">
         <f>IF(_liuan_day_hour!N25="","",_liuan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q33" s="60" t="str">
+      <c r="Q33" s="33" t="str">
         <f>IF(_liuan_day_hour!O25="","",_liuan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R33" s="61" t="str">
+      <c r="R33" s="34" t="str">
         <f>IF(_liuan_day_hour!P25="","",_liuan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S33" s="71"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="73"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="34">
-      <c r="B34" s="74" t="s">
+    <row r="34" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="60" t="str">
-        <f>IF(C10="","",AVERAGE(C10:C17))</f>
-        <v/>
-      </c>
-      <c r="D34" s="60" t="str">
-        <f>IF(D10="","",AVERAGE(D10:D17))</f>
-        <v/>
-      </c>
-      <c r="E34" s="60" t="str">
-        <f>IF(E10="","",AVERAGE(E10:E17))</f>
-        <v/>
-      </c>
-      <c r="F34" s="60" t="str">
-        <f>IF(F10="","",AVERAGE(F10:F17))</f>
-        <v/>
-      </c>
-      <c r="G34" s="61" t="str">
-        <f>IF(G10="","",AVERAGE(G10:G17))</f>
-        <v/>
-      </c>
-      <c r="H34" s="61" t="str">
-        <f>IF(H10="","",AVERAGE(H10:H17))</f>
-        <v/>
-      </c>
-      <c r="I34" s="60" t="str">
-        <f>IF(I10="","",AVERAGE(I10:I17))</f>
-        <v/>
-      </c>
-      <c r="J34" s="60" t="str">
-        <f>IF(J10="","",AVERAGE(J10:J17))</f>
-        <v/>
-      </c>
-      <c r="K34" s="60" t="str">
-        <f>IF(K10="","",AVERAGE(K10:K17))</f>
-        <v/>
-      </c>
-      <c r="L34" s="61" t="str">
-        <f>IF(L10="","",AVERAGE(L10:L17))</f>
-        <v/>
-      </c>
-      <c r="M34" s="61" t="str">
-        <f>IF(M10="","",AVERAGE(M10:M17))</f>
-        <v/>
-      </c>
-      <c r="N34" s="61" t="str">
-        <f>IF(N10="","",AVERAGE(N10:N17))</f>
-        <v/>
-      </c>
-      <c r="O34" s="61" t="str">
-        <f>IF(O10="","",AVERAGE(O10:O17))</f>
-        <v/>
-      </c>
-      <c r="P34" s="61" t="str">
-        <f>IF(P10="","",AVERAGE(P10:P17))</f>
-        <v/>
-      </c>
-      <c r="Q34" s="60" t="str">
-        <f>IF(Q10="","",AVERAGE(Q10:Q17))</f>
-        <v/>
-      </c>
-      <c r="R34" s="61" t="str">
-        <f>IF(R10="","",AVERAGE(R10:R17))</f>
-        <v/>
-      </c>
-      <c r="S34" s="71"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="73"/>
+      <c r="C34" s="33" t="str">
+        <f t="shared" ref="C34:R34" si="0">IF(C10="","",AVERAGE(C10:C17))</f>
+        <v/>
+      </c>
+      <c r="D34" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E34" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H34" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I34" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J34" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L34" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M34" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N34" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O34" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P34" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q34" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R34" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S34" s="79"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="35">
-      <c r="B35" s="74" t="s">
+    <row r="35" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="60" t="str">
-        <f>IF(C18="","",AVERAGE(C18:C25))</f>
-        <v/>
-      </c>
-      <c r="D35" s="60" t="str">
-        <f>IF(D18="","",AVERAGE(D18:D25))</f>
-        <v/>
-      </c>
-      <c r="E35" s="60" t="str">
-        <f>IF(E18="","",AVERAGE(E18:E25))</f>
-        <v/>
-      </c>
-      <c r="F35" s="60" t="str">
-        <f>IF(F18="","",AVERAGE(F18:F25))</f>
-        <v/>
-      </c>
-      <c r="G35" s="61" t="str">
-        <f>IF(G18="","",AVERAGE(G18:G25))</f>
-        <v/>
-      </c>
-      <c r="H35" s="61" t="str">
-        <f>IF(H18="","",AVERAGE(H18:H25))</f>
-        <v/>
-      </c>
-      <c r="I35" s="60" t="str">
-        <f>IF(I18="","",AVERAGE(I18:I25))</f>
-        <v/>
-      </c>
-      <c r="J35" s="60" t="str">
-        <f>IF(J18="","",AVERAGE(J18:J25))</f>
-        <v/>
-      </c>
-      <c r="K35" s="60" t="str">
-        <f>IF(K18="","",AVERAGE(K18:K25))</f>
-        <v/>
-      </c>
-      <c r="L35" s="61" t="str">
-        <f>IF(L18="","",AVERAGE(L18:L25))</f>
-        <v/>
-      </c>
-      <c r="M35" s="61" t="str">
-        <f>IF(M18="","",AVERAGE(M18:M25))</f>
-        <v/>
-      </c>
-      <c r="N35" s="61" t="str">
-        <f>IF(N18="","",AVERAGE(N18:N25))</f>
-        <v/>
-      </c>
-      <c r="O35" s="61" t="str">
-        <f>IF(O18="","",AVERAGE(O18:O25))</f>
-        <v/>
-      </c>
-      <c r="P35" s="61" t="str">
-        <f>IF(P18="","",AVERAGE(P18:P25))</f>
-        <v/>
-      </c>
-      <c r="Q35" s="60" t="str">
-        <f>IF(Q18="","",AVERAGE(Q18:Q25))</f>
-        <v/>
-      </c>
-      <c r="R35" s="61" t="str">
-        <f>IF(R18="","",AVERAGE(R18:R25))</f>
-        <v/>
-      </c>
-      <c r="S35" s="71"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="73"/>
+      <c r="C35" s="33" t="str">
+        <f t="shared" ref="C35:R35" si="1">IF(C18="","",AVERAGE(C18:C25))</f>
+        <v/>
+      </c>
+      <c r="D35" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G35" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H35" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I35" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J35" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K35" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L35" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M35" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N35" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O35" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P35" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q35" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R35" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S35" s="79"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="36">
-      <c r="B36" s="74" t="s">
+    <row r="36" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="60" t="str">
-        <f>IF(C26="","",AVERAGE(C26:C33))</f>
-        <v/>
-      </c>
-      <c r="D36" s="60" t="str">
-        <f>IF(D26="","",AVERAGE(D26:D33))</f>
-        <v/>
-      </c>
-      <c r="E36" s="60" t="str">
-        <f>IF(E26="","",AVERAGE(E26:E33))</f>
-        <v/>
-      </c>
-      <c r="F36" s="60" t="str">
-        <f>IF(F26="","",AVERAGE(F26:F33))</f>
-        <v/>
-      </c>
-      <c r="G36" s="61" t="str">
-        <f>IF(G26="","",AVERAGE(G26:G33))</f>
-        <v/>
-      </c>
-      <c r="H36" s="61" t="str">
-        <f>IF(H26="","",AVERAGE(H26:H33))</f>
-        <v/>
-      </c>
-      <c r="I36" s="60" t="str">
-        <f>IF(I26="","",AVERAGE(I26:I33))</f>
-        <v/>
-      </c>
-      <c r="J36" s="60" t="str">
-        <f>IF(J26="","",AVERAGE(J26:J33))</f>
-        <v/>
-      </c>
-      <c r="K36" s="60" t="str">
-        <f>IF(K26="","",AVERAGE(K26:K33))</f>
-        <v/>
-      </c>
-      <c r="L36" s="61" t="str">
-        <f>IF(L26="","",AVERAGE(L26:L33))</f>
-        <v/>
-      </c>
-      <c r="M36" s="61" t="str">
-        <f>IF(M26="","",AVERAGE(M26:M33))</f>
-        <v/>
-      </c>
-      <c r="N36" s="61" t="str">
-        <f>IF(N26="","",AVERAGE(N26:N33))</f>
-        <v/>
-      </c>
-      <c r="O36" s="61" t="str">
-        <f>IF(O26="","",AVERAGE(O26:O33))</f>
-        <v/>
-      </c>
-      <c r="P36" s="61" t="str">
-        <f>IF(P26="","",AVERAGE(P26:P33))</f>
-        <v/>
-      </c>
-      <c r="Q36" s="60" t="str">
-        <f>IF(Q26="","",AVERAGE(Q26:Q33))</f>
-        <v/>
-      </c>
-      <c r="R36" s="61" t="str">
-        <f>IF(R26="","",AVERAGE(R26:R33))</f>
-        <v/>
-      </c>
-      <c r="S36" s="71"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="73"/>
+      <c r="C36" s="33" t="str">
+        <f t="shared" ref="C36:R36" si="2">IF(C26="","",AVERAGE(C26:C33))</f>
+        <v/>
+      </c>
+      <c r="D36" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E36" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F36" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I36" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J36" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K36" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q36" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S36" s="79"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="81"/>
     </row>
-    <row ht="25" customHeight="1" r="37">
-      <c r="B37" s="75" t="s">
+    <row r="37" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="76" t="str">
-        <f>IF(C10="","",AVERAGE(C10:C33))</f>
-        <v/>
-      </c>
-      <c r="D37" s="76" t="str">
-        <f>IF(D10="","",AVERAGE(D10:D33))</f>
-        <v/>
-      </c>
-      <c r="E37" s="76" t="str">
-        <f>IF(E10="","",AVERAGE(E10:E33))</f>
-        <v/>
-      </c>
-      <c r="F37" s="76" t="str">
-        <f>IF(F10="","",AVERAGE(F10:F33))</f>
-        <v/>
-      </c>
-      <c r="G37" s="77" t="str">
-        <f>IF(G10="","",AVERAGE(G10:G33))</f>
-        <v/>
-      </c>
-      <c r="H37" s="77" t="str">
-        <f>IF(H10="","",AVERAGE(H10:H33))</f>
-        <v/>
-      </c>
-      <c r="I37" s="76" t="str">
-        <f>IF(I10="","",AVERAGE(I10:I33))</f>
-        <v/>
-      </c>
-      <c r="J37" s="76" t="str">
-        <f>IF(J10="","",AVERAGE(J10:J33))</f>
-        <v/>
-      </c>
-      <c r="K37" s="76" t="str">
-        <f>IF(K10="","",AVERAGE(K10:K33))</f>
-        <v/>
-      </c>
-      <c r="L37" s="77" t="str">
-        <f>IF(L10="","",AVERAGE(L10:L33))</f>
-        <v/>
-      </c>
-      <c r="M37" s="77" t="str">
-        <f>IF(M10="","",AVERAGE(M10:M33))</f>
-        <v/>
-      </c>
-      <c r="N37" s="77" t="str">
-        <f>IF(N10="","",AVERAGE(N10:N33))</f>
-        <v/>
-      </c>
-      <c r="O37" s="77" t="str">
-        <f>IF(O10="","",AVERAGE(O10:O33))</f>
-        <v/>
-      </c>
-      <c r="P37" s="77" t="str">
-        <f>IF(P10="","",AVERAGE(P10:P33))</f>
-        <v/>
-      </c>
-      <c r="Q37" s="76" t="str">
-        <f>IF(Q10="","",AVERAGE(Q10:Q33))</f>
-        <v/>
-      </c>
-      <c r="R37" s="77" t="str">
-        <f>IF(R10="","",AVERAGE(R10:R33))</f>
-        <v/>
-      </c>
-      <c r="S37" s="71"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="73"/>
+      <c r="C37" s="41" t="str">
+        <f t="shared" ref="C37:R37" si="3">IF(C10="","",AVERAGE(C10:C33))</f>
+        <v/>
+      </c>
+      <c r="D37" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E37" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F37" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G37" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H37" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I37" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J37" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K37" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L37" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M37" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N37" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O37" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P37" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q37" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R37" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S37" s="79"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="81"/>
     </row>
-    <row ht="147" customHeight="1" r="38">
-      <c r="B38" s="78" t="s">
+    <row r="38" spans="2:23" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80" t="s">
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="78" t="s">
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="73"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="81"/>
     </row>
-    <row ht="19.5" r="39">
-      <c r="B39" s="84" t="s">
+    <row r="39" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="84" t="s">
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="87" t="s">
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
-      <c r="V39" s="90"/>
-      <c r="W39" s="91"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:W39"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B1:W1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="R2:W2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="S3:W4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I4:I5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:W39"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="N39:R39"/>
   </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="C10:C37">
-    <cfRule type="cellIs" priority="40" dxfId="0" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="40" operator="greaterThan">
       <formula>C$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G37">
-    <cfRule type="cellIs" priority="36" dxfId="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="36" operator="greaterThanOrEqual">
       <formula>G$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I37">
-    <cfRule type="cellIs" priority="25" dxfId="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="greaterThan">
       <formula>$I$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I37">
-    <cfRule type="cellIs" priority="24" dxfId="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="lessThan">
       <formula>$I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D37">
-    <cfRule type="cellIs" priority="13" dxfId="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>D$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E37">
-    <cfRule type="cellIs" priority="12" dxfId="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>E$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F37">
-    <cfRule type="cellIs" priority="11" dxfId="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>F$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H37">
-    <cfRule type="cellIs" priority="10" dxfId="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThanOrEqual">
       <formula>H$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J37">
-    <cfRule type="cellIs" priority="9" dxfId="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
       <formula>J$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K37">
-    <cfRule type="cellIs" priority="8" dxfId="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
       <formula>K$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L37">
-    <cfRule type="cellIs" priority="7" dxfId="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>L$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M37">
-    <cfRule type="cellIs" priority="6" dxfId="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>M$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N37">
-    <cfRule type="cellIs" priority="5" dxfId="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>N$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O37">
-    <cfRule type="cellIs" priority="4" dxfId="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>O$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P37">
-    <cfRule type="cellIs" priority="3" dxfId="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>P$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:Q37">
-    <cfRule type="cellIs" priority="2" dxfId="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>Q$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R37">
-    <cfRule type="cellIs" priority="1" dxfId="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>R$7+0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row ht="45" r="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="N1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="O1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="93" t="s">
+      <c r="P1" s="44" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/excel/finished/焦化/CK67-化产-硫铵报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-硫铵报表（日）.xlsx
@@ -532,9 +532,6 @@
     <t>MYLS/I/1/2/3</t>
   </si>
   <si>
-    <t>MSSA/N2/QMIR21LSA</t>
-  </si>
-  <si>
     <r>
       <t>MSSA/</t>
     </r>
@@ -652,6 +649,10 @@
       <t>/QMIR21MQJH</t>
     </r>
   </si>
+  <si>
+    <t>MSSA/N/QMIR21LSA</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -659,7 +660,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1335,27 +1336,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1416,6 +1417,108 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1434,27 +1537,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1482,91 +1564,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1978,139 +1979,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="46" t="str">
+      <c r="D2" s="80" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
     </row>
     <row r="3" spans="1:23" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="49" t="s">
+      <c r="K3" s="82"/>
+      <c r="L3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="55" t="s">
+      <c r="M3" s="84"/>
+      <c r="N3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="R3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="63"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="90"/>
     </row>
     <row r="4" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="67" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56" t="s">
+      <c r="H4" s="75"/>
+      <c r="I4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="75"/>
+      <c r="L4" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="66"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="93"/>
     </row>
     <row r="5" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2129,7 +2130,7 @@
       <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="57"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2142,15 +2143,15 @@
       <c r="M5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="69" t="s">
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="70"/>
+      <c r="T5" s="95"/>
       <c r="U5" s="7" t="s">
         <v>21</v>
       </c>
@@ -2162,7 +2163,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
@@ -2214,8 +2215,8 @@
       <c r="R6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="71"/>
-      <c r="T6" s="72"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="13"/>
@@ -2465,7 +2466,7 @@
         <f>IF(_liuan_day_hour!P2="","",_liuan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S10" s="73" t="s">
+      <c r="S10" s="59" t="s">
         <v>55</v>
       </c>
       <c r="T10" s="35" t="s">
@@ -2552,7 +2553,7 @@
         <f>IF(_liuan_day_hour!P3="","",_liuan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S11" s="73"/>
+      <c r="S11" s="59"/>
       <c r="T11" s="35" t="s">
         <v>57</v>
       </c>
@@ -2637,7 +2638,7 @@
         <f>IF(_liuan_day_hour!P4="","",_liuan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S12" s="73"/>
+      <c r="S12" s="59"/>
       <c r="T12" s="35" t="s">
         <v>58</v>
       </c>
@@ -2722,7 +2723,7 @@
         <f>IF(_liuan_day_hour!P5="","",_liuan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S13" s="73"/>
+      <c r="S13" s="59"/>
       <c r="T13" s="37" t="s">
         <v>59</v>
       </c>
@@ -2807,7 +2808,7 @@
         <f>IF(_liuan_day_hour!P6="","",_liuan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S14" s="73" t="s">
+      <c r="S14" s="59" t="s">
         <v>60</v>
       </c>
       <c r="T14" s="38" t="s">
@@ -2894,7 +2895,7 @@
         <f>IF(_liuan_day_hour!P7="","",_liuan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S15" s="73"/>
+      <c r="S15" s="59"/>
       <c r="T15" s="35" t="s">
         <v>62</v>
       </c>
@@ -2979,10 +2980,10 @@
         <f>IF(_liuan_day_hour!P8="","",_liuan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S16" s="74" t="s">
+      <c r="S16" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="T16" s="75"/>
+      <c r="T16" s="61"/>
       <c r="U16" s="33" t="str">
         <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
         <v/>
@@ -3064,11 +3065,11 @@
         <f>IF(_liuan_day_hour!P9="","",_liuan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S17" s="76"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="78"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="64"/>
     </row>
     <row r="18" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="32">
@@ -3138,11 +3139,11 @@
         <f>IF(_liuan_day_hour!P10="","",_liuan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S18" s="79"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="81"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="67"/>
     </row>
     <row r="19" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="32">
@@ -3212,11 +3213,11 @@
         <f>IF(_liuan_day_hour!P11="","",_liuan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S19" s="79"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="81"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="67"/>
     </row>
     <row r="20" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="32">
@@ -3286,11 +3287,11 @@
         <f>IF(_liuan_day_hour!P12="","",_liuan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S20" s="79"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="81"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="67"/>
     </row>
     <row r="21" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="32">
@@ -3360,11 +3361,11 @@
         <f>IF(_liuan_day_hour!P13="","",_liuan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S21" s="79"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="81"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="67"/>
     </row>
     <row r="22" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="32">
@@ -3434,11 +3435,11 @@
         <f>IF(_liuan_day_hour!P14="","",_liuan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S22" s="79"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="81"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="67"/>
     </row>
     <row r="23" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32">
@@ -3508,11 +3509,11 @@
         <f>IF(_liuan_day_hour!P15="","",_liuan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S23" s="79"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="81"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="67"/>
     </row>
     <row r="24" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32">
@@ -3582,11 +3583,11 @@
         <f>IF(_liuan_day_hour!P16="","",_liuan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S24" s="79"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="81"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="67"/>
     </row>
     <row r="25" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="32">
@@ -3656,11 +3657,11 @@
         <f>IF(_liuan_day_hour!P17="","",_liuan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S25" s="79"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="81"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="67"/>
     </row>
     <row r="26" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="32">
@@ -3730,11 +3731,11 @@
         <f>IF(_liuan_day_hour!P18="","",_liuan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S26" s="79"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="81"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="67"/>
     </row>
     <row r="27" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="32">
@@ -3804,11 +3805,11 @@
         <f>IF(_liuan_day_hour!P19="","",_liuan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S27" s="79"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="81"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="67"/>
     </row>
     <row r="28" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="32">
@@ -3878,11 +3879,11 @@
         <f>IF(_liuan_day_hour!P20="","",_liuan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S28" s="79"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="81"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="67"/>
     </row>
     <row r="29" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="32">
@@ -3952,11 +3953,11 @@
         <f>IF(_liuan_day_hour!P21="","",_liuan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S29" s="79"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="81"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="67"/>
     </row>
     <row r="30" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="32">
@@ -4026,11 +4027,11 @@
         <f>IF(_liuan_day_hour!P22="","",_liuan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S30" s="79"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="81"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="67"/>
     </row>
     <row r="31" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="32">
@@ -4100,11 +4101,11 @@
         <f>IF(_liuan_day_hour!P23="","",_liuan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S31" s="79"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="81"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="67"/>
     </row>
     <row r="32" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="32">
@@ -4174,11 +4175,11 @@
         <f>IF(_liuan_day_hour!P24="","",_liuan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S32" s="79"/>
-      <c r="T32" s="80"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="81"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="67"/>
     </row>
     <row r="33" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="32">
@@ -4248,11 +4249,11 @@
         <f>IF(_liuan_day_hour!P25="","",_liuan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S33" s="79"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="81"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="67"/>
     </row>
     <row r="34" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="39" t="s">
@@ -4322,11 +4323,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S34" s="79"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="81"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="67"/>
     </row>
     <row r="35" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
@@ -4396,11 +4397,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S35" s="79"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="81"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="67"/>
     </row>
     <row r="36" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="39" t="s">
@@ -4470,11 +4471,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S36" s="79"/>
-      <c r="T36" s="80"/>
-      <c r="U36" s="80"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="81"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="67"/>
     </row>
     <row r="37" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="40" t="s">
@@ -4544,85 +4545,84 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S37" s="79"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="81"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="67"/>
     </row>
     <row r="38" spans="2:23" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86" t="s">
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="84" t="s">
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="80"/>
-      <c r="W38" s="81"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="67"/>
     </row>
     <row r="39" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="90" t="s">
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="93" t="s">
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="83"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:W39"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:W4"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="N3:N5"/>
@@ -4634,16 +4634,17 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:W4"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:W39"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="N39:R39"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="C10:C37">
@@ -4827,8 +4828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4846,19 +4847,19 @@
         <v>74</v>
       </c>
       <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>75</v>

--- a/excel/finished/焦化/CK67-化产-硫铵报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-硫铵报表（日）.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20730" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="4.硫铵（日）" sheetId="1" r:id="rId1"/>
-    <sheet name="_liuan_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
+    <sheet name="4.硫铵（日）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_liuan_day_hour" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
-  <si>
-    <t>6-7#  焦炉硫铵操作记录</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+  <si>
+    <t xml:space="preserve">6-7#  焦炉硫铵操作记录</t>
   </si>
   <si>
     <t xml:space="preserve">    SGSSG-BSMCSA35-G010-01A</t>
   </si>
   <si>
-    <t>项目   
+    <t xml:space="preserve">项目   
   时间</t>
   </si>
   <si>
@@ -38,56 +37,55 @@
     <t>大母液循环泵</t>
   </si>
   <si>
-    <t>母液贮槽液位 mm</t>
-  </si>
-  <si>
-    <t>母液放空槽液位 mm</t>
-  </si>
-  <si>
-    <t>硫酸槽液位 mm</t>
-  </si>
-  <si>
-    <t>饱和器加酸流量 m3/h</t>
-  </si>
-  <si>
-    <t>引风机吸力 kPa</t>
+    <t xml:space="preserve">母液贮槽液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">母液放空槽液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硫酸槽液位 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饱和器加酸流量 m3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引风机吸力 kPa</t>
   </si>
   <si>
     <t>化验分析</t>
   </si>
   <si>
-    <t>预热器阻力 kPa</t>
-  </si>
-  <si>
-    <t>饱和器阻力 kPa</t>
-  </si>
-  <si>
-    <t>预热后温度 ℃</t>
+    <t xml:space="preserve">预热器阻力 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饱和器阻力 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预热后温度 ℃</t>
   </si>
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">饱和器后温度 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>℃</t>
     </r>
   </si>
   <si>
-    <t>温度 ℃</t>
-  </si>
-  <si>
-    <t>电机电流 A</t>
+    <t xml:space="preserve">温度 ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电机电流 A</t>
   </si>
   <si>
     <t>1#</t>
@@ -201,7 +199,7 @@
     <t>≤-5</t>
   </si>
   <si>
-    <t>硫
+    <t xml:space="preserve">硫
 铵
 产
 品</t>
@@ -209,19 +207,18 @@
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">产量
 </t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> t</t>
     </r>
@@ -229,19 +226,18 @@
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">含氮量
 </t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>%</t>
     </r>
@@ -249,19 +245,18 @@
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">游离酸
 </t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>%</t>
     </r>
@@ -269,18 +264,17 @@
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>水分</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>%</t>
     </r>
@@ -289,13 +283,13 @@
     <t xml:space="preserve">饱和器煤气含氨量 </t>
   </si>
   <si>
-    <t>前 mg/Nm3</t>
-  </si>
-  <si>
-    <t>后 mg/Nm3</t>
-  </si>
-  <si>
-    <t>接酸量 t</t>
+    <t xml:space="preserve">前 mg/Nm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后 mg/Nm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接酸量 t</t>
   </si>
   <si>
     <t>夜班平均</t>
@@ -313,26 +307,25 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>夜班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -341,35 +334,33 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="等线"/>
         <sz val="14"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
       </rPr>
       <t>白</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -378,35 +369,33 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="等线"/>
         <sz val="14"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
       </rPr>
       <t>中</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -415,36 +404,34 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>接班：</t>
     </r>
@@ -453,36 +440,34 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>接班：</t>
     </r>
@@ -491,36 +476,34 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">                    </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
         <color indexed="64"/>
         <rFont val="等线"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>接班：</t>
     </r>
@@ -529,7 +512,7 @@
     <t>MSSA/O/1/2/3</t>
   </si>
   <si>
-    <t>MYLS/I/1/2/3</t>
+    <t>MSSA/N/QMIR21LSA</t>
   </si>
   <si>
     <r>
@@ -537,21 +520,19 @@
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>游离酸</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/QMIR21LSA</t>
     </r>
@@ -565,41 +546,37 @@
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>全氨</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/6#-7#</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>焦炉饱和器前</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/QMIR21MQJH</t>
     </r>
@@ -610,48 +587,43 @@
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>全氨</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/6#-7#</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>焦炉饱和器后</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/QMIR21MQJH</t>
     </r>
   </si>
   <si>
-    <t>MSSA/N/QMIR21LSA</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>MYLS/I/1/2/3</t>
   </si>
 </sst>
 </file>
@@ -659,169 +631,124 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="160" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="161" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="22"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="22"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
       <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="2"/>
       <sz val="12"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color indexed="64"/>
       <sz val="14"/>
-      <color indexed="64"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
       <b/>
       <sz val="14"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="64"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -829,7 +756,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1301,282 +1228,296 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="94">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="9" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="12" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="19" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="20" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="21" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="19" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="20" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="20" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="12" fillId="0" borderId="22" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="16" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="16" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="17" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="14" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="17" fillId="0" borderId="23" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="9" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="9" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="18" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="24" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="18" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="27" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="28" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="29" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="17" fillId="0" borderId="23" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="17" fillId="0" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="31" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="31" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="32" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="33" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="32" numFmtId="160" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="33" numFmtId="160" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="34" numFmtId="160" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="34" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="35" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="36" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="32" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="33" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="34" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="36" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color indexed="2"/>
@@ -1642,38 +1583,13 @@
         <color indexed="2"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -1687,9 +1603,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 2"/>
+        <xdr:cNvPr id="4" name="Line 2" hidden="0"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1726,9 +1642,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 3"/>
+        <xdr:cNvPr id="5" name="Line 3" hidden="0"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1755,8 +1671,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1959,2657 +2158,2656 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <pane state="frozen" topLeftCell="C10" xSplit="2" ySplit="9"/>
+      <selection activeCell="U10" activeCellId="0" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="18" width="10.5" customWidth="1"/>
-    <col min="20" max="20" width="14.375" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="10.875"/>
+    <col customWidth="1" min="3" max="18" width="10.5"/>
+    <col customWidth="1" min="20" max="20" width="14.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="79" t="s">
+    <row ht="27.75" r="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="80" t="str">
+    <row customFormat="1" ht="18.75" r="2" s="2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="R2" s="81" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="R2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71" t="s">
+    <row ht="32.100000000000001" customHeight="1" r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="74" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="74" t="s">
+      <c r="O3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="74" t="s">
+      <c r="P3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="74" t="s">
+      <c r="Q3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="85" t="s">
+      <c r="R3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="90"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="77" t="s">
+    <row ht="36" customHeight="1" r="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="75" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="93"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="24"/>
     </row>
-    <row r="5" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="4" t="s">
+    <row ht="18.75" r="5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="94" t="s">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="95"/>
-      <c r="U5" s="7" t="s">
+      <c r="T5" s="31"/>
+      <c r="U5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="9" t="s">
+    <row ht="31.5" customHeight="1" hidden="1" r="6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="13"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="40"/>
     </row>
-    <row r="7" spans="1:23" s="14" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+    <row customFormat="1" ht="31.5" customHeight="1" hidden="1" r="7" s="41">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="44">
         <v>1</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="44">
         <v>4</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="44">
         <v>4</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="44">
         <v>65</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="44">
         <v>65</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="44">
         <v>60</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="44">
         <v>55</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="44">
         <v>55</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="44">
         <v>200</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="44">
         <v>200</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="44">
         <v>1800</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="44">
         <v>1200</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="44">
         <v>5000</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="44">
         <v>1</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="45">
         <v>-5</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
     </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+    <row customFormat="1" ht="31.5" customHeight="1" hidden="1" r="8" s="41">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="44">
         <v>-99999</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="44">
         <v>-99999</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="44">
         <v>-99999</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="44">
         <v>-99999</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="44">
         <v>-99999</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="44">
         <v>-99999</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="44">
         <v>40</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="44">
         <v>-99999</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="44">
         <v>-99999</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="44">
         <v>-99999</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="44">
         <v>-99999</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="44">
         <v>-99999</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="44">
         <v>-99999</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="44">
         <v>-99999</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="44">
         <v>-99999</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="44">
         <v>-99999</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="22"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
     </row>
-    <row r="9" spans="1:23" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+    <row customFormat="1" ht="24.949999999999999" customHeight="1" r="9" s="50">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="31"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
     </row>
-    <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="10">
+      <c r="B10" s="59">
         <v>0</v>
       </c>
-      <c r="C10" s="33" t="str">
+      <c r="C10" s="60" t="str">
         <f>IF(_liuan_day_hour!A2="","",_liuan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D10" s="33" t="str">
+      <c r="D10" s="60" t="str">
         <f>IF(_liuan_day_hour!B2="","",_liuan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E10" s="33" t="str">
+      <c r="E10" s="60" t="str">
         <f>IF(_liuan_day_hour!C2="","",_liuan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F10" s="33" t="str">
+      <c r="F10" s="60" t="str">
         <f>IF(_liuan_day_hour!D2="","",_liuan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G10" s="34" t="str">
+      <c r="G10" s="61" t="str">
         <f>IF(_liuan_day_hour!E2="","",_liuan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H10" s="34" t="str">
+      <c r="H10" s="61" t="str">
         <f>IF(_liuan_day_hour!F2="","",_liuan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I10" s="33" t="str">
+      <c r="I10" s="60" t="str">
         <f>IF(_liuan_day_hour!G2="","",_liuan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J10" s="33" t="str">
+      <c r="J10" s="60" t="str">
         <f>IF(_liuan_day_hour!H2="","",_liuan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K10" s="33" t="str">
+      <c r="K10" s="60" t="str">
         <f>IF(_liuan_day_hour!I2="","",_liuan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L10" s="34" t="str">
+      <c r="L10" s="61" t="str">
         <f>IF(_liuan_day_hour!J2="","",_liuan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M10" s="34" t="str">
+      <c r="M10" s="61" t="str">
         <f>IF(_liuan_day_hour!K2="","",_liuan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N10" s="34" t="str">
+      <c r="N10" s="61" t="str">
         <f>IF(_liuan_day_hour!L2="","",_liuan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O10" s="34" t="str">
+      <c r="O10" s="61" t="str">
         <f>IF(_liuan_day_hour!M2="","",_liuan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P10" s="34" t="str">
+      <c r="P10" s="61" t="str">
         <f>IF(_liuan_day_hour!N2="","",_liuan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q10" s="33" t="str">
+      <c r="Q10" s="60" t="str">
         <f>IF(_liuan_day_hour!O2="","",_liuan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R10" s="34" t="str">
+      <c r="R10" s="61" t="str">
         <f>IF(_liuan_day_hour!P2="","",_liuan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S10" s="59" t="s">
+      <c r="S10" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="T10" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="33" t="str">
+      <c r="U10" s="60" t="str">
         <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="V10" s="33" t="str">
+      <c r="V10" s="60" t="str">
         <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="W10" s="36" t="str">
+      <c r="W10" s="64" t="str">
         <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="32">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C11" s="33" t="str">
+    <row ht="24.949999999999999" customHeight="1" r="11">
+      <c r="B11" s="59">
+        <v>0.041666666666666699</v>
+      </c>
+      <c r="C11" s="60" t="str">
         <f>IF(_liuan_day_hour!A3="","",_liuan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D11" s="33" t="str">
+      <c r="D11" s="60" t="str">
         <f>IF(_liuan_day_hour!B3="","",_liuan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E11" s="33" t="str">
+      <c r="E11" s="60" t="str">
         <f>IF(_liuan_day_hour!C3="","",_liuan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F11" s="33" t="str">
+      <c r="F11" s="60" t="str">
         <f>IF(_liuan_day_hour!D3="","",_liuan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G11" s="34" t="str">
+      <c r="G11" s="61" t="str">
         <f>IF(_liuan_day_hour!E3="","",_liuan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H11" s="34" t="str">
+      <c r="H11" s="61" t="str">
         <f>IF(_liuan_day_hour!F3="","",_liuan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I11" s="33" t="str">
+      <c r="I11" s="60" t="str">
         <f>IF(_liuan_day_hour!G3="","",_liuan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J11" s="33" t="str">
+      <c r="J11" s="60" t="str">
         <f>IF(_liuan_day_hour!H3="","",_liuan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K11" s="33" t="str">
+      <c r="K11" s="60" t="str">
         <f>IF(_liuan_day_hour!I3="","",_liuan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L11" s="34" t="str">
+      <c r="L11" s="61" t="str">
         <f>IF(_liuan_day_hour!J3="","",_liuan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M11" s="34" t="str">
+      <c r="M11" s="61" t="str">
         <f>IF(_liuan_day_hour!K3="","",_liuan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N11" s="34" t="str">
+      <c r="N11" s="61" t="str">
         <f>IF(_liuan_day_hour!L3="","",_liuan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O11" s="34" t="str">
+      <c r="O11" s="61" t="str">
         <f>IF(_liuan_day_hour!M3="","",_liuan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P11" s="34" t="str">
+      <c r="P11" s="61" t="str">
         <f>IF(_liuan_day_hour!N3="","",_liuan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q11" s="33" t="str">
+      <c r="Q11" s="60" t="str">
         <f>IF(_liuan_day_hour!O3="","",_liuan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R11" s="34" t="str">
+      <c r="R11" s="61" t="str">
         <f>IF(_liuan_day_hour!P3="","",_liuan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S11" s="59"/>
-      <c r="T11" s="35" t="s">
+      <c r="S11" s="62"/>
+      <c r="T11" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="U11" s="33" t="str">
+      <c r="U11" s="60" t="str">
         <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="V11" s="33" t="str">
+      <c r="V11" s="60" t="str">
         <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="W11" s="36" t="str">
+      <c r="W11" s="64" t="str">
         <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="32">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C12" s="33" t="str">
+    <row ht="24.949999999999999" customHeight="1" r="12">
+      <c r="B12" s="59">
+        <v>0.083333333333333301</v>
+      </c>
+      <c r="C12" s="60" t="str">
         <f>IF(_liuan_day_hour!A4="","",_liuan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D12" s="33" t="str">
+      <c r="D12" s="60" t="str">
         <f>IF(_liuan_day_hour!B4="","",_liuan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E12" s="33" t="str">
+      <c r="E12" s="60" t="str">
         <f>IF(_liuan_day_hour!C4="","",_liuan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F12" s="33" t="str">
+      <c r="F12" s="60" t="str">
         <f>IF(_liuan_day_hour!D4="","",_liuan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G12" s="34" t="str">
+      <c r="G12" s="61" t="str">
         <f>IF(_liuan_day_hour!E4="","",_liuan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H12" s="34" t="str">
+      <c r="H12" s="61" t="str">
         <f>IF(_liuan_day_hour!F4="","",_liuan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I12" s="33" t="str">
+      <c r="I12" s="60" t="str">
         <f>IF(_liuan_day_hour!G4="","",_liuan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J12" s="33" t="str">
+      <c r="J12" s="60" t="str">
         <f>IF(_liuan_day_hour!H4="","",_liuan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K12" s="33" t="str">
+      <c r="K12" s="60" t="str">
         <f>IF(_liuan_day_hour!I4="","",_liuan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L12" s="34" t="str">
+      <c r="L12" s="61" t="str">
         <f>IF(_liuan_day_hour!J4="","",_liuan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M12" s="34" t="str">
+      <c r="M12" s="61" t="str">
         <f>IF(_liuan_day_hour!K4="","",_liuan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N12" s="34" t="str">
+      <c r="N12" s="61" t="str">
         <f>IF(_liuan_day_hour!L4="","",_liuan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O12" s="34" t="str">
+      <c r="O12" s="61" t="str">
         <f>IF(_liuan_day_hour!M4="","",_liuan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P12" s="34" t="str">
+      <c r="P12" s="61" t="str">
         <f>IF(_liuan_day_hour!N4="","",_liuan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q12" s="33" t="str">
+      <c r="Q12" s="60" t="str">
         <f>IF(_liuan_day_hour!O4="","",_liuan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R12" s="34" t="str">
+      <c r="R12" s="61" t="str">
         <f>IF(_liuan_day_hour!P4="","",_liuan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S12" s="59"/>
-      <c r="T12" s="35" t="s">
+      <c r="S12" s="62"/>
+      <c r="T12" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="33" t="str">
+      <c r="U12" s="60" t="str">
         <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="V12" s="33" t="str">
+      <c r="V12" s="60" t="str">
         <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="W12" s="36" t="str">
+      <c r="W12" s="64" t="str">
         <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="13">
+      <c r="B13" s="59">
         <v>0.125</v>
       </c>
-      <c r="C13" s="33" t="str">
+      <c r="C13" s="60" t="str">
         <f>IF(_liuan_day_hour!A5="","",_liuan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D13" s="33" t="str">
+      <c r="D13" s="60" t="str">
         <f>IF(_liuan_day_hour!B5="","",_liuan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E13" s="33" t="str">
+      <c r="E13" s="60" t="str">
         <f>IF(_liuan_day_hour!C5="","",_liuan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F13" s="33" t="str">
+      <c r="F13" s="60" t="str">
         <f>IF(_liuan_day_hour!D5="","",_liuan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G13" s="34" t="str">
+      <c r="G13" s="61" t="str">
         <f>IF(_liuan_day_hour!E5="","",_liuan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H13" s="34" t="str">
+      <c r="H13" s="61" t="str">
         <f>IF(_liuan_day_hour!F5="","",_liuan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I13" s="33" t="str">
+      <c r="I13" s="60" t="str">
         <f>IF(_liuan_day_hour!G5="","",_liuan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J13" s="33" t="str">
+      <c r="J13" s="60" t="str">
         <f>IF(_liuan_day_hour!H5="","",_liuan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K13" s="33" t="str">
+      <c r="K13" s="60" t="str">
         <f>IF(_liuan_day_hour!I5="","",_liuan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L13" s="34" t="str">
+      <c r="L13" s="61" t="str">
         <f>IF(_liuan_day_hour!J5="","",_liuan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M13" s="34" t="str">
+      <c r="M13" s="61" t="str">
         <f>IF(_liuan_day_hour!K5="","",_liuan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N13" s="34" t="str">
+      <c r="N13" s="61" t="str">
         <f>IF(_liuan_day_hour!L5="","",_liuan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O13" s="34" t="str">
+      <c r="O13" s="61" t="str">
         <f>IF(_liuan_day_hour!M5="","",_liuan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P13" s="34" t="str">
+      <c r="P13" s="61" t="str">
         <f>IF(_liuan_day_hour!N5="","",_liuan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q13" s="33" t="str">
+      <c r="Q13" s="60" t="str">
         <f>IF(_liuan_day_hour!O5="","",_liuan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R13" s="34" t="str">
+      <c r="R13" s="61" t="str">
         <f>IF(_liuan_day_hour!P5="","",_liuan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S13" s="59"/>
-      <c r="T13" s="37" t="s">
+      <c r="S13" s="62"/>
+      <c r="T13" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="33" t="str">
+      <c r="U13" s="60" t="str">
         <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="V13" s="33" t="str">
+      <c r="V13" s="60" t="str">
         <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="W13" s="36" t="str">
+      <c r="W13" s="64" t="str">
         <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="14">
+      <c r="B14" s="59">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C14" s="33" t="str">
+      <c r="C14" s="60" t="str">
         <f>IF(_liuan_day_hour!A6="","",_liuan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D14" s="33" t="str">
+      <c r="D14" s="60" t="str">
         <f>IF(_liuan_day_hour!B6="","",_liuan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E14" s="33" t="str">
+      <c r="E14" s="60" t="str">
         <f>IF(_liuan_day_hour!C6="","",_liuan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F14" s="33" t="str">
+      <c r="F14" s="60" t="str">
         <f>IF(_liuan_day_hour!D6="","",_liuan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G14" s="34" t="str">
+      <c r="G14" s="61" t="str">
         <f>IF(_liuan_day_hour!E6="","",_liuan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H14" s="34" t="str">
+      <c r="H14" s="61" t="str">
         <f>IF(_liuan_day_hour!F6="","",_liuan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I14" s="33" t="str">
+      <c r="I14" s="60" t="str">
         <f>IF(_liuan_day_hour!G6="","",_liuan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J14" s="33" t="str">
+      <c r="J14" s="60" t="str">
         <f>IF(_liuan_day_hour!H6="","",_liuan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K14" s="33" t="str">
+      <c r="K14" s="60" t="str">
         <f>IF(_liuan_day_hour!I6="","",_liuan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L14" s="34" t="str">
+      <c r="L14" s="61" t="str">
         <f>IF(_liuan_day_hour!J6="","",_liuan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M14" s="34" t="str">
+      <c r="M14" s="61" t="str">
         <f>IF(_liuan_day_hour!K6="","",_liuan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N14" s="34" t="str">
+      <c r="N14" s="61" t="str">
         <f>IF(_liuan_day_hour!L6="","",_liuan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O14" s="34" t="str">
+      <c r="O14" s="61" t="str">
         <f>IF(_liuan_day_hour!M6="","",_liuan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P14" s="34" t="str">
+      <c r="P14" s="61" t="str">
         <f>IF(_liuan_day_hour!N6="","",_liuan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q14" s="33" t="str">
+      <c r="Q14" s="60" t="str">
         <f>IF(_liuan_day_hour!O6="","",_liuan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R14" s="34" t="str">
+      <c r="R14" s="61" t="str">
         <f>IF(_liuan_day_hour!P6="","",_liuan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S14" s="59" t="s">
+      <c r="S14" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="T14" s="38" t="s">
+      <c r="T14" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="U14" s="33" t="str">
+      <c r="U14" s="60" t="str">
         <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="V14" s="33" t="str">
+      <c r="V14" s="60" t="str">
         <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="W14" s="36" t="str">
+      <c r="W14" s="64" t="str">
         <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="15">
+      <c r="B15" s="59">
         <v>0.20833333333333301</v>
       </c>
-      <c r="C15" s="33" t="str">
+      <c r="C15" s="60" t="str">
         <f>IF(_liuan_day_hour!A7="","",_liuan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D15" s="33" t="str">
+      <c r="D15" s="60" t="str">
         <f>IF(_liuan_day_hour!B7="","",_liuan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E15" s="33" t="str">
+      <c r="E15" s="60" t="str">
         <f>IF(_liuan_day_hour!C7="","",_liuan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F15" s="33" t="str">
+      <c r="F15" s="60" t="str">
         <f>IF(_liuan_day_hour!D7="","",_liuan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G15" s="34" t="str">
+      <c r="G15" s="61" t="str">
         <f>IF(_liuan_day_hour!E7="","",_liuan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H15" s="34" t="str">
+      <c r="H15" s="61" t="str">
         <f>IF(_liuan_day_hour!F7="","",_liuan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I15" s="33" t="str">
+      <c r="I15" s="60" t="str">
         <f>IF(_liuan_day_hour!G7="","",_liuan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J15" s="33" t="str">
+      <c r="J15" s="60" t="str">
         <f>IF(_liuan_day_hour!H7="","",_liuan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K15" s="33" t="str">
+      <c r="K15" s="60" t="str">
         <f>IF(_liuan_day_hour!I7="","",_liuan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L15" s="34" t="str">
+      <c r="L15" s="61" t="str">
         <f>IF(_liuan_day_hour!J7="","",_liuan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M15" s="34" t="str">
+      <c r="M15" s="61" t="str">
         <f>IF(_liuan_day_hour!K7="","",_liuan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N15" s="34" t="str">
+      <c r="N15" s="61" t="str">
         <f>IF(_liuan_day_hour!L7="","",_liuan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O15" s="34" t="str">
+      <c r="O15" s="61" t="str">
         <f>IF(_liuan_day_hour!M7="","",_liuan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P15" s="34" t="str">
+      <c r="P15" s="61" t="str">
         <f>IF(_liuan_day_hour!N7="","",_liuan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q15" s="33" t="str">
+      <c r="Q15" s="60" t="str">
         <f>IF(_liuan_day_hour!O7="","",_liuan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R15" s="34" t="str">
+      <c r="R15" s="61" t="str">
         <f>IF(_liuan_day_hour!P7="","",_liuan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S15" s="59"/>
-      <c r="T15" s="35" t="s">
+      <c r="S15" s="62"/>
+      <c r="T15" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="U15" s="33" t="str">
+      <c r="U15" s="60" t="str">
         <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="V15" s="33" t="str">
+      <c r="V15" s="60" t="str">
         <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="W15" s="36" t="str">
+      <c r="W15" s="64" t="str">
         <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="16">
+      <c r="B16" s="59">
         <v>0.25</v>
       </c>
-      <c r="C16" s="33" t="str">
+      <c r="C16" s="60" t="str">
         <f>IF(_liuan_day_hour!A8="","",_liuan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D16" s="33" t="str">
+      <c r="D16" s="60" t="str">
         <f>IF(_liuan_day_hour!B8="","",_liuan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E16" s="33" t="str">
+      <c r="E16" s="60" t="str">
         <f>IF(_liuan_day_hour!C8="","",_liuan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F16" s="33" t="str">
+      <c r="F16" s="60" t="str">
         <f>IF(_liuan_day_hour!D8="","",_liuan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G16" s="34" t="str">
+      <c r="G16" s="61" t="str">
         <f>IF(_liuan_day_hour!E8="","",_liuan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H16" s="34" t="str">
+      <c r="H16" s="61" t="str">
         <f>IF(_liuan_day_hour!F8="","",_liuan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I16" s="33" t="str">
+      <c r="I16" s="60" t="str">
         <f>IF(_liuan_day_hour!G8="","",_liuan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J16" s="33" t="str">
+      <c r="J16" s="60" t="str">
         <f>IF(_liuan_day_hour!H8="","",_liuan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K16" s="33" t="str">
+      <c r="K16" s="60" t="str">
         <f>IF(_liuan_day_hour!I8="","",_liuan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L16" s="34" t="str">
+      <c r="L16" s="61" t="str">
         <f>IF(_liuan_day_hour!J8="","",_liuan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M16" s="34" t="str">
+      <c r="M16" s="61" t="str">
         <f>IF(_liuan_day_hour!K8="","",_liuan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N16" s="34" t="str">
+      <c r="N16" s="61" t="str">
         <f>IF(_liuan_day_hour!L8="","",_liuan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O16" s="34" t="str">
+      <c r="O16" s="61" t="str">
         <f>IF(_liuan_day_hour!M8="","",_liuan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P16" s="34" t="str">
+      <c r="P16" s="61" t="str">
         <f>IF(_liuan_day_hour!N8="","",_liuan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q16" s="33" t="str">
+      <c r="Q16" s="60" t="str">
         <f>IF(_liuan_day_hour!O8="","",_liuan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R16" s="34" t="str">
+      <c r="R16" s="61" t="str">
         <f>IF(_liuan_day_hour!P8="","",_liuan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S16" s="60" t="s">
+      <c r="S16" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="T16" s="61"/>
-      <c r="U16" s="33" t="str">
+      <c r="T16" s="66"/>
+      <c r="U16" s="60" t="str">
         <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="V16" s="33" t="str">
+      <c r="V16" s="60" t="str">
         <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="W16" s="36" t="str">
+      <c r="W16" s="64" t="str">
         <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="17">
+      <c r="B17" s="59">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C17" s="33" t="str">
+      <c r="C17" s="60" t="str">
         <f>IF(_liuan_day_hour!A9="","",_liuan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D17" s="33" t="str">
+      <c r="D17" s="60" t="str">
         <f>IF(_liuan_day_hour!B9="","",_liuan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E17" s="33" t="str">
+      <c r="E17" s="60" t="str">
         <f>IF(_liuan_day_hour!C9="","",_liuan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F17" s="33" t="str">
+      <c r="F17" s="60" t="str">
         <f>IF(_liuan_day_hour!D9="","",_liuan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G17" s="34" t="str">
+      <c r="G17" s="61" t="str">
         <f>IF(_liuan_day_hour!E9="","",_liuan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H17" s="34" t="str">
+      <c r="H17" s="61" t="str">
         <f>IF(_liuan_day_hour!F9="","",_liuan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I17" s="33" t="str">
+      <c r="I17" s="60" t="str">
         <f>IF(_liuan_day_hour!G9="","",_liuan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J17" s="33" t="str">
+      <c r="J17" s="60" t="str">
         <f>IF(_liuan_day_hour!H9="","",_liuan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K17" s="33" t="str">
+      <c r="K17" s="60" t="str">
         <f>IF(_liuan_day_hour!I9="","",_liuan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L17" s="34" t="str">
+      <c r="L17" s="61" t="str">
         <f>IF(_liuan_day_hour!J9="","",_liuan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M17" s="34" t="str">
+      <c r="M17" s="61" t="str">
         <f>IF(_liuan_day_hour!K9="","",_liuan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N17" s="34" t="str">
+      <c r="N17" s="61" t="str">
         <f>IF(_liuan_day_hour!L9="","",_liuan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O17" s="34" t="str">
+      <c r="O17" s="61" t="str">
         <f>IF(_liuan_day_hour!M9="","",_liuan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P17" s="34" t="str">
+      <c r="P17" s="61" t="str">
         <f>IF(_liuan_day_hour!N9="","",_liuan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q17" s="33" t="str">
+      <c r="Q17" s="60" t="str">
         <f>IF(_liuan_day_hour!O9="","",_liuan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R17" s="34" t="str">
+      <c r="R17" s="61" t="str">
         <f>IF(_liuan_day_hour!P9="","",_liuan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S17" s="62"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="64"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="70"/>
     </row>
-    <row r="18" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="18">
+      <c r="B18" s="59">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C18" s="33" t="str">
+      <c r="C18" s="60" t="str">
         <f>IF(_liuan_day_hour!A10="","",_liuan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D18" s="33" t="str">
+      <c r="D18" s="60" t="str">
         <f>IF(_liuan_day_hour!B10="","",_liuan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E18" s="33" t="str">
+      <c r="E18" s="60" t="str">
         <f>IF(_liuan_day_hour!C10="","",_liuan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F18" s="33" t="str">
+      <c r="F18" s="60" t="str">
         <f>IF(_liuan_day_hour!D10="","",_liuan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G18" s="34" t="str">
+      <c r="G18" s="61" t="str">
         <f>IF(_liuan_day_hour!E10="","",_liuan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H18" s="34" t="str">
+      <c r="H18" s="61" t="str">
         <f>IF(_liuan_day_hour!F10="","",_liuan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I18" s="33" t="str">
+      <c r="I18" s="60" t="str">
         <f>IF(_liuan_day_hour!G10="","",_liuan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J18" s="33" t="str">
+      <c r="J18" s="60" t="str">
         <f>IF(_liuan_day_hour!H10="","",_liuan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K18" s="33" t="str">
+      <c r="K18" s="60" t="str">
         <f>IF(_liuan_day_hour!I10="","",_liuan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L18" s="34" t="str">
+      <c r="L18" s="61" t="str">
         <f>IF(_liuan_day_hour!J10="","",_liuan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M18" s="34" t="str">
+      <c r="M18" s="61" t="str">
         <f>IF(_liuan_day_hour!K10="","",_liuan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N18" s="34" t="str">
+      <c r="N18" s="61" t="str">
         <f>IF(_liuan_day_hour!L10="","",_liuan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O18" s="34" t="str">
+      <c r="O18" s="61" t="str">
         <f>IF(_liuan_day_hour!M10="","",_liuan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P18" s="34" t="str">
+      <c r="P18" s="61" t="str">
         <f>IF(_liuan_day_hour!N10="","",_liuan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q18" s="33" t="str">
+      <c r="Q18" s="60" t="str">
         <f>IF(_liuan_day_hour!O10="","",_liuan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R18" s="34" t="str">
+      <c r="R18" s="61" t="str">
         <f>IF(_liuan_day_hour!P10="","",_liuan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S18" s="65"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="67"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="73"/>
     </row>
-    <row r="19" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="19">
+      <c r="B19" s="59">
         <v>0.375</v>
       </c>
-      <c r="C19" s="33" t="str">
+      <c r="C19" s="60" t="str">
         <f>IF(_liuan_day_hour!A11="","",_liuan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D19" s="33" t="str">
+      <c r="D19" s="60" t="str">
         <f>IF(_liuan_day_hour!B11="","",_liuan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E19" s="33" t="str">
+      <c r="E19" s="60" t="str">
         <f>IF(_liuan_day_hour!C11="","",_liuan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F19" s="33" t="str">
+      <c r="F19" s="60" t="str">
         <f>IF(_liuan_day_hour!D11="","",_liuan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G19" s="34" t="str">
+      <c r="G19" s="61" t="str">
         <f>IF(_liuan_day_hour!E11="","",_liuan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H19" s="34" t="str">
+      <c r="H19" s="61" t="str">
         <f>IF(_liuan_day_hour!F11="","",_liuan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I19" s="33" t="str">
+      <c r="I19" s="60" t="str">
         <f>IF(_liuan_day_hour!G11="","",_liuan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J19" s="33" t="str">
+      <c r="J19" s="60" t="str">
         <f>IF(_liuan_day_hour!H11="","",_liuan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K19" s="33" t="str">
+      <c r="K19" s="60" t="str">
         <f>IF(_liuan_day_hour!I11="","",_liuan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L19" s="34" t="str">
+      <c r="L19" s="61" t="str">
         <f>IF(_liuan_day_hour!J11="","",_liuan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M19" s="34" t="str">
+      <c r="M19" s="61" t="str">
         <f>IF(_liuan_day_hour!K11="","",_liuan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N19" s="34" t="str">
+      <c r="N19" s="61" t="str">
         <f>IF(_liuan_day_hour!L11="","",_liuan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O19" s="34" t="str">
+      <c r="O19" s="61" t="str">
         <f>IF(_liuan_day_hour!M11="","",_liuan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P19" s="34" t="str">
+      <c r="P19" s="61" t="str">
         <f>IF(_liuan_day_hour!N11="","",_liuan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q19" s="33" t="str">
+      <c r="Q19" s="60" t="str">
         <f>IF(_liuan_day_hour!O11="","",_liuan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R19" s="34" t="str">
+      <c r="R19" s="61" t="str">
         <f>IF(_liuan_day_hour!P11="","",_liuan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S19" s="65"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="67"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="73"/>
     </row>
-    <row r="20" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="20">
+      <c r="B20" s="59">
         <v>0.41666666666666602</v>
       </c>
-      <c r="C20" s="33" t="str">
+      <c r="C20" s="60" t="str">
         <f>IF(_liuan_day_hour!A12="","",_liuan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D20" s="33" t="str">
+      <c r="D20" s="60" t="str">
         <f>IF(_liuan_day_hour!B12="","",_liuan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E20" s="33" t="str">
+      <c r="E20" s="60" t="str">
         <f>IF(_liuan_day_hour!C12="","",_liuan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F20" s="33" t="str">
+      <c r="F20" s="60" t="str">
         <f>IF(_liuan_day_hour!D12="","",_liuan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G20" s="34" t="str">
+      <c r="G20" s="61" t="str">
         <f>IF(_liuan_day_hour!E12="","",_liuan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H20" s="34" t="str">
+      <c r="H20" s="61" t="str">
         <f>IF(_liuan_day_hour!F12="","",_liuan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I20" s="33" t="str">
+      <c r="I20" s="60" t="str">
         <f>IF(_liuan_day_hour!G12="","",_liuan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J20" s="33" t="str">
+      <c r="J20" s="60" t="str">
         <f>IF(_liuan_day_hour!H12="","",_liuan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K20" s="33" t="str">
+      <c r="K20" s="60" t="str">
         <f>IF(_liuan_day_hour!I12="","",_liuan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L20" s="34" t="str">
+      <c r="L20" s="61" t="str">
         <f>IF(_liuan_day_hour!J12="","",_liuan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M20" s="34" t="str">
+      <c r="M20" s="61" t="str">
         <f>IF(_liuan_day_hour!K12="","",_liuan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N20" s="34" t="str">
+      <c r="N20" s="61" t="str">
         <f>IF(_liuan_day_hour!L12="","",_liuan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O20" s="34" t="str">
+      <c r="O20" s="61" t="str">
         <f>IF(_liuan_day_hour!M12="","",_liuan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P20" s="34" t="str">
+      <c r="P20" s="61" t="str">
         <f>IF(_liuan_day_hour!N12="","",_liuan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q20" s="33" t="str">
+      <c r="Q20" s="60" t="str">
         <f>IF(_liuan_day_hour!O12="","",_liuan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R20" s="34" t="str">
+      <c r="R20" s="61" t="str">
         <f>IF(_liuan_day_hour!P12="","",_liuan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S20" s="65"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="67"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="73"/>
     </row>
-    <row r="21" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="21">
+      <c r="B21" s="59">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C21" s="33" t="str">
+      <c r="C21" s="60" t="str">
         <f>IF(_liuan_day_hour!A13="","",_liuan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D21" s="33" t="str">
+      <c r="D21" s="60" t="str">
         <f>IF(_liuan_day_hour!B13="","",_liuan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E21" s="33" t="str">
+      <c r="E21" s="60" t="str">
         <f>IF(_liuan_day_hour!C13="","",_liuan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F21" s="33" t="str">
+      <c r="F21" s="60" t="str">
         <f>IF(_liuan_day_hour!D13="","",_liuan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G21" s="34" t="str">
+      <c r="G21" s="61" t="str">
         <f>IF(_liuan_day_hour!E13="","",_liuan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H21" s="34" t="str">
+      <c r="H21" s="61" t="str">
         <f>IF(_liuan_day_hour!F13="","",_liuan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I21" s="33" t="str">
+      <c r="I21" s="60" t="str">
         <f>IF(_liuan_day_hour!G13="","",_liuan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J21" s="33" t="str">
+      <c r="J21" s="60" t="str">
         <f>IF(_liuan_day_hour!H13="","",_liuan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K21" s="33" t="str">
+      <c r="K21" s="60" t="str">
         <f>IF(_liuan_day_hour!I13="","",_liuan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L21" s="34" t="str">
+      <c r="L21" s="61" t="str">
         <f>IF(_liuan_day_hour!J13="","",_liuan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M21" s="34" t="str">
+      <c r="M21" s="61" t="str">
         <f>IF(_liuan_day_hour!K13="","",_liuan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N21" s="34" t="str">
+      <c r="N21" s="61" t="str">
         <f>IF(_liuan_day_hour!L13="","",_liuan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O21" s="34" t="str">
+      <c r="O21" s="61" t="str">
         <f>IF(_liuan_day_hour!M13="","",_liuan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P21" s="34" t="str">
+      <c r="P21" s="61" t="str">
         <f>IF(_liuan_day_hour!N13="","",_liuan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q21" s="33" t="str">
+      <c r="Q21" s="60" t="str">
         <f>IF(_liuan_day_hour!O13="","",_liuan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R21" s="34" t="str">
+      <c r="R21" s="61" t="str">
         <f>IF(_liuan_day_hour!P13="","",_liuan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S21" s="65"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="67"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="73"/>
     </row>
-    <row r="22" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="22">
+      <c r="B22" s="59">
         <v>0.5</v>
       </c>
-      <c r="C22" s="33" t="str">
+      <c r="C22" s="60" t="str">
         <f>IF(_liuan_day_hour!A14="","",_liuan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D22" s="33" t="str">
+      <c r="D22" s="60" t="str">
         <f>IF(_liuan_day_hour!B14="","",_liuan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E22" s="33" t="str">
+      <c r="E22" s="60" t="str">
         <f>IF(_liuan_day_hour!C14="","",_liuan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F22" s="33" t="str">
+      <c r="F22" s="60" t="str">
         <f>IF(_liuan_day_hour!D14="","",_liuan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G22" s="34" t="str">
+      <c r="G22" s="61" t="str">
         <f>IF(_liuan_day_hour!E14="","",_liuan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H22" s="34" t="str">
+      <c r="H22" s="61" t="str">
         <f>IF(_liuan_day_hour!F14="","",_liuan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I22" s="33" t="str">
+      <c r="I22" s="60" t="str">
         <f>IF(_liuan_day_hour!G14="","",_liuan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J22" s="33" t="str">
+      <c r="J22" s="60" t="str">
         <f>IF(_liuan_day_hour!H14="","",_liuan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K22" s="33" t="str">
+      <c r="K22" s="60" t="str">
         <f>IF(_liuan_day_hour!I14="","",_liuan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L22" s="34" t="str">
+      <c r="L22" s="61" t="str">
         <f>IF(_liuan_day_hour!J14="","",_liuan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M22" s="34" t="str">
+      <c r="M22" s="61" t="str">
         <f>IF(_liuan_day_hour!K14="","",_liuan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N22" s="34" t="str">
+      <c r="N22" s="61" t="str">
         <f>IF(_liuan_day_hour!L14="","",_liuan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O22" s="34" t="str">
+      <c r="O22" s="61" t="str">
         <f>IF(_liuan_day_hour!M14="","",_liuan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P22" s="34" t="str">
+      <c r="P22" s="61" t="str">
         <f>IF(_liuan_day_hour!N14="","",_liuan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q22" s="33" t="str">
+      <c r="Q22" s="60" t="str">
         <f>IF(_liuan_day_hour!O14="","",_liuan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R22" s="34" t="str">
+      <c r="R22" s="61" t="str">
         <f>IF(_liuan_day_hour!P14="","",_liuan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S22" s="65"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="67"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="73"/>
     </row>
-    <row r="23" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="23">
+      <c r="B23" s="59">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C23" s="33" t="str">
+      <c r="C23" s="60" t="str">
         <f>IF(_liuan_day_hour!A15="","",_liuan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D23" s="33" t="str">
+      <c r="D23" s="60" t="str">
         <f>IF(_liuan_day_hour!B15="","",_liuan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E23" s="33" t="str">
+      <c r="E23" s="60" t="str">
         <f>IF(_liuan_day_hour!C15="","",_liuan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F23" s="33" t="str">
+      <c r="F23" s="60" t="str">
         <f>IF(_liuan_day_hour!D15="","",_liuan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G23" s="34" t="str">
+      <c r="G23" s="61" t="str">
         <f>IF(_liuan_day_hour!E15="","",_liuan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H23" s="34" t="str">
+      <c r="H23" s="61" t="str">
         <f>IF(_liuan_day_hour!F15="","",_liuan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I23" s="33" t="str">
+      <c r="I23" s="60" t="str">
         <f>IF(_liuan_day_hour!G15="","",_liuan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J23" s="33" t="str">
+      <c r="J23" s="60" t="str">
         <f>IF(_liuan_day_hour!H15="","",_liuan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K23" s="33" t="str">
+      <c r="K23" s="60" t="str">
         <f>IF(_liuan_day_hour!I15="","",_liuan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L23" s="34" t="str">
+      <c r="L23" s="61" t="str">
         <f>IF(_liuan_day_hour!J15="","",_liuan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M23" s="34" t="str">
+      <c r="M23" s="61" t="str">
         <f>IF(_liuan_day_hour!K15="","",_liuan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N23" s="34" t="str">
+      <c r="N23" s="61" t="str">
         <f>IF(_liuan_day_hour!L15="","",_liuan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O23" s="34" t="str">
+      <c r="O23" s="61" t="str">
         <f>IF(_liuan_day_hour!M15="","",_liuan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P23" s="34" t="str">
+      <c r="P23" s="61" t="str">
         <f>IF(_liuan_day_hour!N15="","",_liuan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q23" s="33" t="str">
+      <c r="Q23" s="60" t="str">
         <f>IF(_liuan_day_hour!O15="","",_liuan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R23" s="34" t="str">
+      <c r="R23" s="61" t="str">
         <f>IF(_liuan_day_hour!P15="","",_liuan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S23" s="65"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="67"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="73"/>
     </row>
-    <row r="24" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="24">
+      <c r="B24" s="59">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C24" s="33" t="str">
+      <c r="C24" s="60" t="str">
         <f>IF(_liuan_day_hour!A16="","",_liuan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D24" s="33" t="str">
+      <c r="D24" s="60" t="str">
         <f>IF(_liuan_day_hour!B16="","",_liuan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E24" s="33" t="str">
+      <c r="E24" s="60" t="str">
         <f>IF(_liuan_day_hour!C16="","",_liuan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F24" s="33" t="str">
+      <c r="F24" s="60" t="str">
         <f>IF(_liuan_day_hour!D16="","",_liuan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G24" s="34" t="str">
+      <c r="G24" s="61" t="str">
         <f>IF(_liuan_day_hour!E16="","",_liuan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H24" s="34" t="str">
+      <c r="H24" s="61" t="str">
         <f>IF(_liuan_day_hour!F16="","",_liuan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I24" s="33" t="str">
+      <c r="I24" s="60" t="str">
         <f>IF(_liuan_day_hour!G16="","",_liuan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J24" s="33" t="str">
+      <c r="J24" s="60" t="str">
         <f>IF(_liuan_day_hour!H16="","",_liuan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K24" s="33" t="str">
+      <c r="K24" s="60" t="str">
         <f>IF(_liuan_day_hour!I16="","",_liuan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L24" s="34" t="str">
+      <c r="L24" s="61" t="str">
         <f>IF(_liuan_day_hour!J16="","",_liuan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M24" s="34" t="str">
+      <c r="M24" s="61" t="str">
         <f>IF(_liuan_day_hour!K16="","",_liuan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N24" s="34" t="str">
+      <c r="N24" s="61" t="str">
         <f>IF(_liuan_day_hour!L16="","",_liuan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O24" s="34" t="str">
+      <c r="O24" s="61" t="str">
         <f>IF(_liuan_day_hour!M16="","",_liuan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P24" s="34" t="str">
+      <c r="P24" s="61" t="str">
         <f>IF(_liuan_day_hour!N16="","",_liuan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q24" s="33" t="str">
+      <c r="Q24" s="60" t="str">
         <f>IF(_liuan_day_hour!O16="","",_liuan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R24" s="34" t="str">
+      <c r="R24" s="61" t="str">
         <f>IF(_liuan_day_hour!P16="","",_liuan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S24" s="65"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="67"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="73"/>
     </row>
-    <row r="25" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="25">
+      <c r="B25" s="59">
         <v>0.625</v>
       </c>
-      <c r="C25" s="33" t="str">
+      <c r="C25" s="60" t="str">
         <f>IF(_liuan_day_hour!A17="","",_liuan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D25" s="33" t="str">
+      <c r="D25" s="60" t="str">
         <f>IF(_liuan_day_hour!B17="","",_liuan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E25" s="33" t="str">
+      <c r="E25" s="60" t="str">
         <f>IF(_liuan_day_hour!C17="","",_liuan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F25" s="33" t="str">
+      <c r="F25" s="60" t="str">
         <f>IF(_liuan_day_hour!D17="","",_liuan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G25" s="34" t="str">
+      <c r="G25" s="61" t="str">
         <f>IF(_liuan_day_hour!E17="","",_liuan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H25" s="34" t="str">
+      <c r="H25" s="61" t="str">
         <f>IF(_liuan_day_hour!F17="","",_liuan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I25" s="33" t="str">
+      <c r="I25" s="60" t="str">
         <f>IF(_liuan_day_hour!G17="","",_liuan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J25" s="33" t="str">
+      <c r="J25" s="60" t="str">
         <f>IF(_liuan_day_hour!H17="","",_liuan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K25" s="33" t="str">
+      <c r="K25" s="60" t="str">
         <f>IF(_liuan_day_hour!I17="","",_liuan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L25" s="34" t="str">
+      <c r="L25" s="61" t="str">
         <f>IF(_liuan_day_hour!J17="","",_liuan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M25" s="34" t="str">
+      <c r="M25" s="61" t="str">
         <f>IF(_liuan_day_hour!K17="","",_liuan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N25" s="34" t="str">
+      <c r="N25" s="61" t="str">
         <f>IF(_liuan_day_hour!L17="","",_liuan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O25" s="34" t="str">
+      <c r="O25" s="61" t="str">
         <f>IF(_liuan_day_hour!M17="","",_liuan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P25" s="34" t="str">
+      <c r="P25" s="61" t="str">
         <f>IF(_liuan_day_hour!N17="","",_liuan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q25" s="33" t="str">
+      <c r="Q25" s="60" t="str">
         <f>IF(_liuan_day_hour!O17="","",_liuan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R25" s="34" t="str">
+      <c r="R25" s="61" t="str">
         <f>IF(_liuan_day_hour!P17="","",_liuan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S25" s="65"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="67"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="73"/>
     </row>
-    <row r="26" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="26">
+      <c r="B26" s="59">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C26" s="33" t="str">
+      <c r="C26" s="60" t="str">
         <f>IF(_liuan_day_hour!A18="","",_liuan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D26" s="33" t="str">
+      <c r="D26" s="60" t="str">
         <f>IF(_liuan_day_hour!B18="","",_liuan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E26" s="33" t="str">
+      <c r="E26" s="60" t="str">
         <f>IF(_liuan_day_hour!C18="","",_liuan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F26" s="33" t="str">
+      <c r="F26" s="60" t="str">
         <f>IF(_liuan_day_hour!D18="","",_liuan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G26" s="34" t="str">
+      <c r="G26" s="61" t="str">
         <f>IF(_liuan_day_hour!E18="","",_liuan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H26" s="34" t="str">
+      <c r="H26" s="61" t="str">
         <f>IF(_liuan_day_hour!F18="","",_liuan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I26" s="33" t="str">
+      <c r="I26" s="60" t="str">
         <f>IF(_liuan_day_hour!G18="","",_liuan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J26" s="33" t="str">
+      <c r="J26" s="60" t="str">
         <f>IF(_liuan_day_hour!H18="","",_liuan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K26" s="33" t="str">
+      <c r="K26" s="60" t="str">
         <f>IF(_liuan_day_hour!I18="","",_liuan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L26" s="34" t="str">
+      <c r="L26" s="61" t="str">
         <f>IF(_liuan_day_hour!J18="","",_liuan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M26" s="34" t="str">
+      <c r="M26" s="61" t="str">
         <f>IF(_liuan_day_hour!K18="","",_liuan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N26" s="34" t="str">
+      <c r="N26" s="61" t="str">
         <f>IF(_liuan_day_hour!L18="","",_liuan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O26" s="34" t="str">
+      <c r="O26" s="61" t="str">
         <f>IF(_liuan_day_hour!M18="","",_liuan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P26" s="34" t="str">
+      <c r="P26" s="61" t="str">
         <f>IF(_liuan_day_hour!N18="","",_liuan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q26" s="33" t="str">
+      <c r="Q26" s="60" t="str">
         <f>IF(_liuan_day_hour!O18="","",_liuan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R26" s="34" t="str">
+      <c r="R26" s="61" t="str">
         <f>IF(_liuan_day_hour!P18="","",_liuan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S26" s="65"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="67"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="73"/>
     </row>
-    <row r="27" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="27">
+      <c r="B27" s="59">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C27" s="33" t="str">
+      <c r="C27" s="60" t="str">
         <f>IF(_liuan_day_hour!A19="","",_liuan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D27" s="33" t="str">
+      <c r="D27" s="60" t="str">
         <f>IF(_liuan_day_hour!B19="","",_liuan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E27" s="33" t="str">
+      <c r="E27" s="60" t="str">
         <f>IF(_liuan_day_hour!C19="","",_liuan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F27" s="33" t="str">
+      <c r="F27" s="60" t="str">
         <f>IF(_liuan_day_hour!D19="","",_liuan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G27" s="34" t="str">
+      <c r="G27" s="61" t="str">
         <f>IF(_liuan_day_hour!E19="","",_liuan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H27" s="34" t="str">
+      <c r="H27" s="61" t="str">
         <f>IF(_liuan_day_hour!F19="","",_liuan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I27" s="33" t="str">
+      <c r="I27" s="60" t="str">
         <f>IF(_liuan_day_hour!G19="","",_liuan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J27" s="33" t="str">
+      <c r="J27" s="60" t="str">
         <f>IF(_liuan_day_hour!H19="","",_liuan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K27" s="33" t="str">
+      <c r="K27" s="60" t="str">
         <f>IF(_liuan_day_hour!I19="","",_liuan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L27" s="34" t="str">
+      <c r="L27" s="61" t="str">
         <f>IF(_liuan_day_hour!J19="","",_liuan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M27" s="34" t="str">
+      <c r="M27" s="61" t="str">
         <f>IF(_liuan_day_hour!K19="","",_liuan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N27" s="34" t="str">
+      <c r="N27" s="61" t="str">
         <f>IF(_liuan_day_hour!L19="","",_liuan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O27" s="34" t="str">
+      <c r="O27" s="61" t="str">
         <f>IF(_liuan_day_hour!M19="","",_liuan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P27" s="34" t="str">
+      <c r="P27" s="61" t="str">
         <f>IF(_liuan_day_hour!N19="","",_liuan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q27" s="33" t="str">
+      <c r="Q27" s="60" t="str">
         <f>IF(_liuan_day_hour!O19="","",_liuan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R27" s="34" t="str">
+      <c r="R27" s="61" t="str">
         <f>IF(_liuan_day_hour!P19="","",_liuan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S27" s="65"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="67"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="73"/>
     </row>
-    <row r="28" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="28">
+      <c r="B28" s="59">
         <v>0.75</v>
       </c>
-      <c r="C28" s="33" t="str">
+      <c r="C28" s="60" t="str">
         <f>IF(_liuan_day_hour!A20="","",_liuan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D28" s="33" t="str">
+      <c r="D28" s="60" t="str">
         <f>IF(_liuan_day_hour!B20="","",_liuan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E28" s="33" t="str">
+      <c r="E28" s="60" t="str">
         <f>IF(_liuan_day_hour!C20="","",_liuan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F28" s="33" t="str">
+      <c r="F28" s="60" t="str">
         <f>IF(_liuan_day_hour!D20="","",_liuan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G28" s="34" t="str">
+      <c r="G28" s="61" t="str">
         <f>IF(_liuan_day_hour!E20="","",_liuan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H28" s="34" t="str">
+      <c r="H28" s="61" t="str">
         <f>IF(_liuan_day_hour!F20="","",_liuan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I28" s="33" t="str">
+      <c r="I28" s="60" t="str">
         <f>IF(_liuan_day_hour!G20="","",_liuan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J28" s="33" t="str">
+      <c r="J28" s="60" t="str">
         <f>IF(_liuan_day_hour!H20="","",_liuan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K28" s="33" t="str">
+      <c r="K28" s="60" t="str">
         <f>IF(_liuan_day_hour!I20="","",_liuan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L28" s="34" t="str">
+      <c r="L28" s="61" t="str">
         <f>IF(_liuan_day_hour!J20="","",_liuan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M28" s="34" t="str">
+      <c r="M28" s="61" t="str">
         <f>IF(_liuan_day_hour!K20="","",_liuan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N28" s="34" t="str">
+      <c r="N28" s="61" t="str">
         <f>IF(_liuan_day_hour!L20="","",_liuan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O28" s="34" t="str">
+      <c r="O28" s="61" t="str">
         <f>IF(_liuan_day_hour!M20="","",_liuan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P28" s="34" t="str">
+      <c r="P28" s="61" t="str">
         <f>IF(_liuan_day_hour!N20="","",_liuan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q28" s="33" t="str">
+      <c r="Q28" s="60" t="str">
         <f>IF(_liuan_day_hour!O20="","",_liuan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R28" s="34" t="str">
+      <c r="R28" s="61" t="str">
         <f>IF(_liuan_day_hour!P20="","",_liuan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S28" s="65"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="67"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="73"/>
     </row>
-    <row r="29" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="29">
+      <c r="B29" s="59">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C29" s="33" t="str">
+      <c r="C29" s="60" t="str">
         <f>IF(_liuan_day_hour!A21="","",_liuan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D29" s="33" t="str">
+      <c r="D29" s="60" t="str">
         <f>IF(_liuan_day_hour!B21="","",_liuan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E29" s="33" t="str">
+      <c r="E29" s="60" t="str">
         <f>IF(_liuan_day_hour!C21="","",_liuan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F29" s="33" t="str">
+      <c r="F29" s="60" t="str">
         <f>IF(_liuan_day_hour!D21="","",_liuan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G29" s="34" t="str">
+      <c r="G29" s="61" t="str">
         <f>IF(_liuan_day_hour!E21="","",_liuan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H29" s="34" t="str">
+      <c r="H29" s="61" t="str">
         <f>IF(_liuan_day_hour!F21="","",_liuan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I29" s="33" t="str">
+      <c r="I29" s="60" t="str">
         <f>IF(_liuan_day_hour!G21="","",_liuan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J29" s="33" t="str">
+      <c r="J29" s="60" t="str">
         <f>IF(_liuan_day_hour!H21="","",_liuan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K29" s="33" t="str">
+      <c r="K29" s="60" t="str">
         <f>IF(_liuan_day_hour!I21="","",_liuan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L29" s="34" t="str">
+      <c r="L29" s="61" t="str">
         <f>IF(_liuan_day_hour!J21="","",_liuan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M29" s="34" t="str">
+      <c r="M29" s="61" t="str">
         <f>IF(_liuan_day_hour!K21="","",_liuan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N29" s="34" t="str">
+      <c r="N29" s="61" t="str">
         <f>IF(_liuan_day_hour!L21="","",_liuan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O29" s="34" t="str">
+      <c r="O29" s="61" t="str">
         <f>IF(_liuan_day_hour!M21="","",_liuan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P29" s="34" t="str">
+      <c r="P29" s="61" t="str">
         <f>IF(_liuan_day_hour!N21="","",_liuan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q29" s="33" t="str">
+      <c r="Q29" s="60" t="str">
         <f>IF(_liuan_day_hour!O21="","",_liuan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R29" s="34" t="str">
+      <c r="R29" s="61" t="str">
         <f>IF(_liuan_day_hour!P21="","",_liuan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S29" s="65"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="67"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="73"/>
     </row>
-    <row r="30" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="30">
+      <c r="B30" s="59">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C30" s="33" t="str">
+      <c r="C30" s="60" t="str">
         <f>IF(_liuan_day_hour!A22="","",_liuan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D30" s="33" t="str">
+      <c r="D30" s="60" t="str">
         <f>IF(_liuan_day_hour!B22="","",_liuan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E30" s="33" t="str">
+      <c r="E30" s="60" t="str">
         <f>IF(_liuan_day_hour!C22="","",_liuan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F30" s="33" t="str">
+      <c r="F30" s="60" t="str">
         <f>IF(_liuan_day_hour!D22="","",_liuan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G30" s="34" t="str">
+      <c r="G30" s="61" t="str">
         <f>IF(_liuan_day_hour!E22="","",_liuan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H30" s="34" t="str">
+      <c r="H30" s="61" t="str">
         <f>IF(_liuan_day_hour!F22="","",_liuan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I30" s="33" t="str">
+      <c r="I30" s="60" t="str">
         <f>IF(_liuan_day_hour!G22="","",_liuan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J30" s="33" t="str">
+      <c r="J30" s="60" t="str">
         <f>IF(_liuan_day_hour!H22="","",_liuan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K30" s="33" t="str">
+      <c r="K30" s="60" t="str">
         <f>IF(_liuan_day_hour!I22="","",_liuan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L30" s="34" t="str">
+      <c r="L30" s="61" t="str">
         <f>IF(_liuan_day_hour!J22="","",_liuan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M30" s="34" t="str">
+      <c r="M30" s="61" t="str">
         <f>IF(_liuan_day_hour!K22="","",_liuan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N30" s="34" t="str">
+      <c r="N30" s="61" t="str">
         <f>IF(_liuan_day_hour!L22="","",_liuan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O30" s="34" t="str">
+      <c r="O30" s="61" t="str">
         <f>IF(_liuan_day_hour!M22="","",_liuan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P30" s="34" t="str">
+      <c r="P30" s="61" t="str">
         <f>IF(_liuan_day_hour!N22="","",_liuan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q30" s="33" t="str">
+      <c r="Q30" s="60" t="str">
         <f>IF(_liuan_day_hour!O22="","",_liuan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R30" s="34" t="str">
+      <c r="R30" s="61" t="str">
         <f>IF(_liuan_day_hour!P22="","",_liuan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S30" s="65"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="67"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="73"/>
     </row>
-    <row r="31" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="31">
+      <c r="B31" s="59">
         <v>0.875</v>
       </c>
-      <c r="C31" s="33" t="str">
+      <c r="C31" s="60" t="str">
         <f>IF(_liuan_day_hour!A23="","",_liuan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D31" s="33" t="str">
+      <c r="D31" s="60" t="str">
         <f>IF(_liuan_day_hour!B23="","",_liuan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E31" s="33" t="str">
+      <c r="E31" s="60" t="str">
         <f>IF(_liuan_day_hour!C23="","",_liuan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F31" s="33" t="str">
+      <c r="F31" s="60" t="str">
         <f>IF(_liuan_day_hour!D23="","",_liuan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G31" s="34" t="str">
+      <c r="G31" s="61" t="str">
         <f>IF(_liuan_day_hour!E23="","",_liuan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H31" s="34" t="str">
+      <c r="H31" s="61" t="str">
         <f>IF(_liuan_day_hour!F23="","",_liuan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I31" s="33" t="str">
+      <c r="I31" s="60" t="str">
         <f>IF(_liuan_day_hour!G23="","",_liuan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J31" s="33" t="str">
+      <c r="J31" s="60" t="str">
         <f>IF(_liuan_day_hour!H23="","",_liuan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K31" s="33" t="str">
+      <c r="K31" s="60" t="str">
         <f>IF(_liuan_day_hour!I23="","",_liuan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L31" s="34" t="str">
+      <c r="L31" s="61" t="str">
         <f>IF(_liuan_day_hour!J23="","",_liuan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M31" s="34" t="str">
+      <c r="M31" s="61" t="str">
         <f>IF(_liuan_day_hour!K23="","",_liuan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N31" s="34" t="str">
+      <c r="N31" s="61" t="str">
         <f>IF(_liuan_day_hour!L23="","",_liuan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O31" s="34" t="str">
+      <c r="O31" s="61" t="str">
         <f>IF(_liuan_day_hour!M23="","",_liuan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P31" s="34" t="str">
+      <c r="P31" s="61" t="str">
         <f>IF(_liuan_day_hour!N23="","",_liuan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q31" s="33" t="str">
+      <c r="Q31" s="60" t="str">
         <f>IF(_liuan_day_hour!O23="","",_liuan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R31" s="34" t="str">
+      <c r="R31" s="61" t="str">
         <f>IF(_liuan_day_hour!P23="","",_liuan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S31" s="65"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="67"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="73"/>
     </row>
-    <row r="32" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="32">
+      <c r="B32" s="59">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C32" s="33" t="str">
+      <c r="C32" s="60" t="str">
         <f>IF(_liuan_day_hour!A24="","",_liuan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D32" s="33" t="str">
+      <c r="D32" s="60" t="str">
         <f>IF(_liuan_day_hour!B24="","",_liuan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E32" s="33" t="str">
+      <c r="E32" s="60" t="str">
         <f>IF(_liuan_day_hour!C24="","",_liuan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F32" s="33" t="str">
+      <c r="F32" s="60" t="str">
         <f>IF(_liuan_day_hour!D24="","",_liuan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G32" s="34" t="str">
+      <c r="G32" s="61" t="str">
         <f>IF(_liuan_day_hour!E24="","",_liuan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H32" s="34" t="str">
+      <c r="H32" s="61" t="str">
         <f>IF(_liuan_day_hour!F24="","",_liuan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I32" s="33" t="str">
+      <c r="I32" s="60" t="str">
         <f>IF(_liuan_day_hour!G24="","",_liuan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J32" s="33" t="str">
+      <c r="J32" s="60" t="str">
         <f>IF(_liuan_day_hour!H24="","",_liuan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K32" s="33" t="str">
+      <c r="K32" s="60" t="str">
         <f>IF(_liuan_day_hour!I24="","",_liuan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L32" s="34" t="str">
+      <c r="L32" s="61" t="str">
         <f>IF(_liuan_day_hour!J24="","",_liuan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M32" s="34" t="str">
+      <c r="M32" s="61" t="str">
         <f>IF(_liuan_day_hour!K24="","",_liuan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N32" s="34" t="str">
+      <c r="N32" s="61" t="str">
         <f>IF(_liuan_day_hour!L24="","",_liuan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O32" s="34" t="str">
+      <c r="O32" s="61" t="str">
         <f>IF(_liuan_day_hour!M24="","",_liuan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P32" s="34" t="str">
+      <c r="P32" s="61" t="str">
         <f>IF(_liuan_day_hour!N24="","",_liuan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q32" s="33" t="str">
+      <c r="Q32" s="60" t="str">
         <f>IF(_liuan_day_hour!O24="","",_liuan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R32" s="34" t="str">
+      <c r="R32" s="61" t="str">
         <f>IF(_liuan_day_hour!P24="","",_liuan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S32" s="65"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="67"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="73"/>
     </row>
-    <row r="33" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="32">
+    <row ht="24.949999999999999" customHeight="1" r="33">
+      <c r="B33" s="59">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C33" s="33" t="str">
+      <c r="C33" s="60" t="str">
         <f>IF(_liuan_day_hour!A25="","",_liuan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D33" s="33" t="str">
+      <c r="D33" s="60" t="str">
         <f>IF(_liuan_day_hour!B25="","",_liuan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E33" s="33" t="str">
+      <c r="E33" s="60" t="str">
         <f>IF(_liuan_day_hour!C25="","",_liuan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F33" s="33" t="str">
+      <c r="F33" s="60" t="str">
         <f>IF(_liuan_day_hour!D25="","",_liuan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G33" s="34" t="str">
+      <c r="G33" s="61" t="str">
         <f>IF(_liuan_day_hour!E25="","",_liuan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H33" s="34" t="str">
+      <c r="H33" s="61" t="str">
         <f>IF(_liuan_day_hour!F25="","",_liuan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I33" s="33" t="str">
+      <c r="I33" s="60" t="str">
         <f>IF(_liuan_day_hour!G25="","",_liuan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J33" s="33" t="str">
+      <c r="J33" s="60" t="str">
         <f>IF(_liuan_day_hour!H25="","",_liuan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K33" s="33" t="str">
+      <c r="K33" s="60" t="str">
         <f>IF(_liuan_day_hour!I25="","",_liuan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L33" s="34" t="str">
+      <c r="L33" s="61" t="str">
         <f>IF(_liuan_day_hour!J25="","",_liuan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M33" s="34" t="str">
+      <c r="M33" s="61" t="str">
         <f>IF(_liuan_day_hour!K25="","",_liuan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N33" s="34" t="str">
+      <c r="N33" s="61" t="str">
         <f>IF(_liuan_day_hour!L25="","",_liuan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O33" s="34" t="str">
+      <c r="O33" s="61" t="str">
         <f>IF(_liuan_day_hour!M25="","",_liuan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P33" s="34" t="str">
+      <c r="P33" s="61" t="str">
         <f>IF(_liuan_day_hour!N25="","",_liuan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q33" s="33" t="str">
+      <c r="Q33" s="60" t="str">
         <f>IF(_liuan_day_hour!O25="","",_liuan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R33" s="34" t="str">
+      <c r="R33" s="61" t="str">
         <f>IF(_liuan_day_hour!P25="","",_liuan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S33" s="65"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="67"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="73"/>
     </row>
-    <row r="34" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="39" t="s">
+    <row ht="24.949999999999999" customHeight="1" r="34">
+      <c r="B34" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="33" t="str">
-        <f t="shared" ref="C34:R34" si="0">IF(C10="","",AVERAGE(C10:C17))</f>
-        <v/>
-      </c>
-      <c r="D34" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E34" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I34" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J34" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K34" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q34" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S34" s="65"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="67"/>
+      <c r="C34" s="60" t="str">
+        <f>IF(C10="","",AVERAGE(C10:C17))</f>
+        <v/>
+      </c>
+      <c r="D34" s="60" t="str">
+        <f>IF(D10="","",AVERAGE(D10:D17))</f>
+        <v/>
+      </c>
+      <c r="E34" s="60" t="str">
+        <f>IF(E10="","",AVERAGE(E10:E17))</f>
+        <v/>
+      </c>
+      <c r="F34" s="60" t="str">
+        <f>IF(F10="","",AVERAGE(F10:F17))</f>
+        <v/>
+      </c>
+      <c r="G34" s="61" t="str">
+        <f>IF(G10="","",AVERAGE(G10:G17))</f>
+        <v/>
+      </c>
+      <c r="H34" s="61" t="str">
+        <f>IF(H10="","",AVERAGE(H10:H17))</f>
+        <v/>
+      </c>
+      <c r="I34" s="60" t="str">
+        <f>IF(I10="","",AVERAGE(I10:I17))</f>
+        <v/>
+      </c>
+      <c r="J34" s="60" t="str">
+        <f>IF(J10="","",AVERAGE(J10:J17))</f>
+        <v/>
+      </c>
+      <c r="K34" s="60" t="str">
+        <f>IF(K10="","",AVERAGE(K10:K17))</f>
+        <v/>
+      </c>
+      <c r="L34" s="61" t="str">
+        <f>IF(L10="","",AVERAGE(L10:L17))</f>
+        <v/>
+      </c>
+      <c r="M34" s="61" t="str">
+        <f>IF(M10="","",AVERAGE(M10:M17))</f>
+        <v/>
+      </c>
+      <c r="N34" s="61" t="str">
+        <f>IF(N10="","",AVERAGE(N10:N17))</f>
+        <v/>
+      </c>
+      <c r="O34" s="61" t="str">
+        <f>IF(O10="","",AVERAGE(O10:O17))</f>
+        <v/>
+      </c>
+      <c r="P34" s="61" t="str">
+        <f>IF(P10="","",AVERAGE(P10:P17))</f>
+        <v/>
+      </c>
+      <c r="Q34" s="60" t="str">
+        <f>IF(Q10="","",AVERAGE(Q10:Q17))</f>
+        <v/>
+      </c>
+      <c r="R34" s="61" t="str">
+        <f>IF(R10="","",AVERAGE(R10:R17))</f>
+        <v/>
+      </c>
+      <c r="S34" s="71"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="73"/>
     </row>
-    <row r="35" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="39" t="s">
+    <row ht="24.949999999999999" customHeight="1" r="35">
+      <c r="B35" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="33" t="str">
-        <f t="shared" ref="C35:R35" si="1">IF(C18="","",AVERAGE(C18:C25))</f>
-        <v/>
-      </c>
-      <c r="D35" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E35" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H35" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J35" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K35" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L35" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M35" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N35" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O35" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P35" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q35" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R35" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S35" s="65"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="67"/>
+      <c r="C35" s="60" t="str">
+        <f>IF(C18="","",AVERAGE(C18:C25))</f>
+        <v/>
+      </c>
+      <c r="D35" s="60" t="str">
+        <f>IF(D18="","",AVERAGE(D18:D25))</f>
+        <v/>
+      </c>
+      <c r="E35" s="60" t="str">
+        <f>IF(E18="","",AVERAGE(E18:E25))</f>
+        <v/>
+      </c>
+      <c r="F35" s="60" t="str">
+        <f>IF(F18="","",AVERAGE(F18:F25))</f>
+        <v/>
+      </c>
+      <c r="G35" s="61" t="str">
+        <f>IF(G18="","",AVERAGE(G18:G25))</f>
+        <v/>
+      </c>
+      <c r="H35" s="61" t="str">
+        <f>IF(H18="","",AVERAGE(H18:H25))</f>
+        <v/>
+      </c>
+      <c r="I35" s="60" t="str">
+        <f>IF(I18="","",AVERAGE(I18:I25))</f>
+        <v/>
+      </c>
+      <c r="J35" s="60" t="str">
+        <f>IF(J18="","",AVERAGE(J18:J25))</f>
+        <v/>
+      </c>
+      <c r="K35" s="60" t="str">
+        <f>IF(K18="","",AVERAGE(K18:K25))</f>
+        <v/>
+      </c>
+      <c r="L35" s="61" t="str">
+        <f>IF(L18="","",AVERAGE(L18:L25))</f>
+        <v/>
+      </c>
+      <c r="M35" s="61" t="str">
+        <f>IF(M18="","",AVERAGE(M18:M25))</f>
+        <v/>
+      </c>
+      <c r="N35" s="61" t="str">
+        <f>IF(N18="","",AVERAGE(N18:N25))</f>
+        <v/>
+      </c>
+      <c r="O35" s="61" t="str">
+        <f>IF(O18="","",AVERAGE(O18:O25))</f>
+        <v/>
+      </c>
+      <c r="P35" s="61" t="str">
+        <f>IF(P18="","",AVERAGE(P18:P25))</f>
+        <v/>
+      </c>
+      <c r="Q35" s="60" t="str">
+        <f>IF(Q18="","",AVERAGE(Q18:Q25))</f>
+        <v/>
+      </c>
+      <c r="R35" s="61" t="str">
+        <f>IF(R18="","",AVERAGE(R18:R25))</f>
+        <v/>
+      </c>
+      <c r="S35" s="71"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="73"/>
     </row>
-    <row r="36" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="39" t="s">
+    <row ht="24.949999999999999" customHeight="1" r="36">
+      <c r="B36" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="33" t="str">
-        <f t="shared" ref="C36:R36" si="2">IF(C26="","",AVERAGE(C26:C33))</f>
-        <v/>
-      </c>
-      <c r="D36" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E36" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F36" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I36" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J36" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K36" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q36" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S36" s="65"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="67"/>
+      <c r="C36" s="60" t="str">
+        <f>IF(C26="","",AVERAGE(C26:C33))</f>
+        <v/>
+      </c>
+      <c r="D36" s="60" t="str">
+        <f>IF(D26="","",AVERAGE(D26:D33))</f>
+        <v/>
+      </c>
+      <c r="E36" s="60" t="str">
+        <f>IF(E26="","",AVERAGE(E26:E33))</f>
+        <v/>
+      </c>
+      <c r="F36" s="60" t="str">
+        <f>IF(F26="","",AVERAGE(F26:F33))</f>
+        <v/>
+      </c>
+      <c r="G36" s="61" t="str">
+        <f>IF(G26="","",AVERAGE(G26:G33))</f>
+        <v/>
+      </c>
+      <c r="H36" s="61" t="str">
+        <f>IF(H26="","",AVERAGE(H26:H33))</f>
+        <v/>
+      </c>
+      <c r="I36" s="60" t="str">
+        <f>IF(I26="","",AVERAGE(I26:I33))</f>
+        <v/>
+      </c>
+      <c r="J36" s="60" t="str">
+        <f>IF(J26="","",AVERAGE(J26:J33))</f>
+        <v/>
+      </c>
+      <c r="K36" s="60" t="str">
+        <f>IF(K26="","",AVERAGE(K26:K33))</f>
+        <v/>
+      </c>
+      <c r="L36" s="61" t="str">
+        <f>IF(L26="","",AVERAGE(L26:L33))</f>
+        <v/>
+      </c>
+      <c r="M36" s="61" t="str">
+        <f>IF(M26="","",AVERAGE(M26:M33))</f>
+        <v/>
+      </c>
+      <c r="N36" s="61" t="str">
+        <f>IF(N26="","",AVERAGE(N26:N33))</f>
+        <v/>
+      </c>
+      <c r="O36" s="61" t="str">
+        <f>IF(O26="","",AVERAGE(O26:O33))</f>
+        <v/>
+      </c>
+      <c r="P36" s="61" t="str">
+        <f>IF(P26="","",AVERAGE(P26:P33))</f>
+        <v/>
+      </c>
+      <c r="Q36" s="60" t="str">
+        <f>IF(Q26="","",AVERAGE(Q26:Q33))</f>
+        <v/>
+      </c>
+      <c r="R36" s="61" t="str">
+        <f>IF(R26="","",AVERAGE(R26:R33))</f>
+        <v/>
+      </c>
+      <c r="S36" s="71"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="73"/>
     </row>
-    <row r="37" spans="2:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="40" t="s">
+    <row ht="24.949999999999999" customHeight="1" r="37">
+      <c r="B37" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="41" t="str">
-        <f t="shared" ref="C37:R37" si="3">IF(C10="","",AVERAGE(C10:C33))</f>
-        <v/>
-      </c>
-      <c r="D37" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E37" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F37" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G37" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H37" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I37" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J37" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K37" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L37" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M37" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N37" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O37" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P37" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q37" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R37" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S37" s="65"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="67"/>
+      <c r="C37" s="76" t="str">
+        <f>IF(C10="","",AVERAGE(C10:C33))</f>
+        <v/>
+      </c>
+      <c r="D37" s="76" t="str">
+        <f>IF(D10="","",AVERAGE(D10:D33))</f>
+        <v/>
+      </c>
+      <c r="E37" s="76" t="str">
+        <f>IF(E10="","",AVERAGE(E10:E33))</f>
+        <v/>
+      </c>
+      <c r="F37" s="76" t="str">
+        <f>IF(F10="","",AVERAGE(F10:F33))</f>
+        <v/>
+      </c>
+      <c r="G37" s="77" t="str">
+        <f>IF(G10="","",AVERAGE(G10:G33))</f>
+        <v/>
+      </c>
+      <c r="H37" s="77" t="str">
+        <f>IF(H10="","",AVERAGE(H10:H33))</f>
+        <v/>
+      </c>
+      <c r="I37" s="76" t="str">
+        <f>IF(I10="","",AVERAGE(I10:I33))</f>
+        <v/>
+      </c>
+      <c r="J37" s="76" t="str">
+        <f>IF(J10="","",AVERAGE(J10:J33))</f>
+        <v/>
+      </c>
+      <c r="K37" s="76" t="str">
+        <f>IF(K10="","",AVERAGE(K10:K33))</f>
+        <v/>
+      </c>
+      <c r="L37" s="77" t="str">
+        <f>IF(L10="","",AVERAGE(L10:L33))</f>
+        <v/>
+      </c>
+      <c r="M37" s="77" t="str">
+        <f>IF(M10="","",AVERAGE(M10:M33))</f>
+        <v/>
+      </c>
+      <c r="N37" s="77" t="str">
+        <f>IF(N10="","",AVERAGE(N10:N33))</f>
+        <v/>
+      </c>
+      <c r="O37" s="77" t="str">
+        <f>IF(O10="","",AVERAGE(O10:O33))</f>
+        <v/>
+      </c>
+      <c r="P37" s="77" t="str">
+        <f>IF(P10="","",AVERAGE(P10:P33))</f>
+        <v/>
+      </c>
+      <c r="Q37" s="76" t="str">
+        <f>IF(Q10="","",AVERAGE(Q10:Q33))</f>
+        <v/>
+      </c>
+      <c r="R37" s="77" t="str">
+        <f>IF(R10="","",AVERAGE(R10:R33))</f>
+        <v/>
+      </c>
+      <c r="S37" s="71"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="73"/>
     </row>
-    <row r="38" spans="2:23" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+    <row ht="147" customHeight="1" r="38">
+      <c r="B38" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47" t="s">
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="45" t="s">
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="67"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="73"/>
     </row>
-    <row r="39" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="51" t="s">
+    <row ht="18.75" r="39">
+      <c r="B39" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="51" t="s">
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="54" t="s">
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="69"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -4621,19 +4819,19 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:W4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="P3:P5"/>
+    <mergeCell ref="S3:W4"/>
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S10:S13"/>
     <mergeCell ref="S14:S15"/>
@@ -4646,228 +4844,221 @@
     <mergeCell ref="G39:M39"/>
     <mergeCell ref="N39:R39"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="C10:C37">
-    <cfRule type="cellIs" dxfId="16" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" priority="40" dxfId="0" operator="greaterThan">
       <formula>C$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G37">
-    <cfRule type="cellIs" dxfId="15" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="36" dxfId="1" operator="greaterThanOrEqual">
       <formula>G$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I37">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" priority="25" dxfId="2" operator="greaterThan">
       <formula>$I$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I37">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="lessThan">
+    <cfRule type="cellIs" priority="24" dxfId="3" operator="lessThan">
       <formula>$I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D37">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" priority="13" dxfId="4" operator="greaterThan">
       <formula>D$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E37">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" priority="12" dxfId="5" operator="greaterThan">
       <formula>E$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F37">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" priority="11" dxfId="6" operator="greaterThan">
       <formula>F$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H37">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="10" dxfId="7" operator="greaterThanOrEqual">
       <formula>H$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J37">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="9" dxfId="8" operator="greaterThanOrEqual">
       <formula>J$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K37">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="8" dxfId="9" operator="greaterThanOrEqual">
       <formula>K$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L37">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" priority="7" dxfId="10" operator="greaterThan">
       <formula>L$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M37">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" priority="6" dxfId="11" operator="greaterThan">
       <formula>M$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N37">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" priority="5" dxfId="12" operator="greaterThan">
       <formula>N$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O37">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" priority="4" dxfId="13" operator="greaterThan">
       <formula>O$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P37">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" priority="3" dxfId="14" operator="greaterThan">
       <formula>P$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:Q37">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" priority="2" dxfId="15" operator="greaterThan">
       <formula>Q$7+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" priority="1" dxfId="16" operator="greaterThan">
       <formula>R$7+0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row ht="60" r="1">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="93" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="13.375"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="20.75"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="24.5"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="22.5"/>
+    <col bestFit="1" customWidth="1" min="5" max="6" width="42.5"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="11.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
